--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="698">
   <si>
     <t>Param_Family</t>
   </si>
@@ -2099,21 +2099,6 @@
   </si>
   <si>
     <t>Param_Type</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>TILE_CM_SAMPLING_POINT_90_TXT</t>
-  </si>
-  <si>
-    <t>TILE_CM_SAMPLING_POINT_50_TXT</t>
-  </si>
-  <si>
-    <t>TILE_CM_SAMPLING_POINT_1FD_TXT</t>
-  </si>
-  <si>
-    <t>EMI_1039</t>
   </si>
   <si>
     <t>Tagged_Param</t>
@@ -2954,11 +2939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H577"/>
+  <dimension ref="A1:H568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E577" sqref="E577"/>
+      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C568" activeCellId="1" sqref="C567 C568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,7 +2981,7 @@
         <v>693</v>
       </c>
       <c r="H1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14026,7 +14011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>681</v>
       </c>
@@ -14046,7 +14031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>681</v>
       </c>
@@ -14066,7 +14051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>681</v>
       </c>
@@ -14086,7 +14071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>681</v>
       </c>
@@ -14106,7 +14091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>681</v>
       </c>
@@ -14126,7 +14111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>110</v>
       </c>
@@ -14134,22 +14119,19 @@
         <v>44</v>
       </c>
       <c r="C566" t="s">
-        <v>698</v>
+        <v>111</v>
       </c>
       <c r="D566" t="s">
-        <v>695</v>
+        <v>182</v>
       </c>
       <c r="E566" t="s">
         <v>695</v>
       </c>
-      <c r="G566" t="s">
-        <v>694</v>
-      </c>
-      <c r="H566" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F566" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>110</v>
       </c>
@@ -14157,22 +14139,19 @@
         <v>44</v>
       </c>
       <c r="C567" t="s">
-        <v>698</v>
+        <v>111</v>
       </c>
       <c r="D567" t="s">
-        <v>696</v>
+        <v>574</v>
       </c>
       <c r="E567" t="s">
         <v>696</v>
       </c>
-      <c r="G567" t="s">
-        <v>694</v>
-      </c>
-      <c r="H567" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F567" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>110</v>
       </c>
@@ -14180,208 +14159,16 @@
         <v>44</v>
       </c>
       <c r="C568" t="s">
-        <v>698</v>
+        <v>111</v>
       </c>
       <c r="D568" t="s">
-        <v>697</v>
+        <v>572</v>
       </c>
       <c r="E568" t="s">
         <v>697</v>
       </c>
-      <c r="G568" t="s">
-        <v>694</v>
-      </c>
-      <c r="H568" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>110</v>
-      </c>
-      <c r="B569" t="s">
-        <v>44</v>
-      </c>
-      <c r="C569" t="s">
-        <v>698</v>
-      </c>
-      <c r="D569" t="s">
-        <v>182</v>
-      </c>
-      <c r="E569" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>110</v>
-      </c>
-      <c r="B570" t="s">
-        <v>44</v>
-      </c>
-      <c r="C570" t="s">
-        <v>698</v>
-      </c>
-      <c r="D570" t="s">
-        <v>695</v>
-      </c>
-      <c r="E570" t="s">
-        <v>695</v>
-      </c>
-      <c r="G570" t="s">
-        <v>694</v>
-      </c>
-      <c r="H570" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>110</v>
-      </c>
-      <c r="B571" t="s">
-        <v>44</v>
-      </c>
-      <c r="C571" t="s">
-        <v>698</v>
-      </c>
-      <c r="D571" t="s">
-        <v>696</v>
-      </c>
-      <c r="E571" t="s">
-        <v>696</v>
-      </c>
-      <c r="G571" t="s">
-        <v>694</v>
-      </c>
-      <c r="H571" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>110</v>
-      </c>
-      <c r="B572" t="s">
-        <v>44</v>
-      </c>
-      <c r="C572" t="s">
-        <v>698</v>
-      </c>
-      <c r="D572" t="s">
-        <v>697</v>
-      </c>
-      <c r="E572" t="s">
-        <v>697</v>
-      </c>
-      <c r="G572" t="s">
-        <v>694</v>
-      </c>
-      <c r="H572" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>110</v>
-      </c>
-      <c r="B573" t="s">
-        <v>44</v>
-      </c>
-      <c r="C573" t="s">
-        <v>698</v>
-      </c>
-      <c r="D573" t="s">
-        <v>574</v>
-      </c>
-      <c r="E573" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>110</v>
-      </c>
-      <c r="B574" t="s">
-        <v>44</v>
-      </c>
-      <c r="C574" t="s">
-        <v>698</v>
-      </c>
-      <c r="D574" t="s">
-        <v>695</v>
-      </c>
-      <c r="E574" t="s">
-        <v>695</v>
-      </c>
-      <c r="G574" t="s">
-        <v>694</v>
-      </c>
-      <c r="H574" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>110</v>
-      </c>
-      <c r="B575" t="s">
-        <v>44</v>
-      </c>
-      <c r="C575" t="s">
-        <v>698</v>
-      </c>
-      <c r="D575" t="s">
-        <v>696</v>
-      </c>
-      <c r="E575" t="s">
-        <v>696</v>
-      </c>
-      <c r="G575" t="s">
-        <v>694</v>
-      </c>
-      <c r="H575" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>110</v>
-      </c>
-      <c r="B576" t="s">
-        <v>44</v>
-      </c>
-      <c r="C576" t="s">
-        <v>698</v>
-      </c>
-      <c r="D576" t="s">
-        <v>697</v>
-      </c>
-      <c r="E576" t="s">
-        <v>697</v>
-      </c>
-      <c r="G576" t="s">
-        <v>694</v>
-      </c>
-      <c r="H576" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>110</v>
-      </c>
-      <c r="B577" t="s">
-        <v>44</v>
-      </c>
-      <c r="C577" t="s">
-        <v>698</v>
-      </c>
-      <c r="D577" t="s">
-        <v>572</v>
-      </c>
-      <c r="E577" t="s">
-        <v>702</v>
+      <c r="F568" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -2562,8 +2562,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2906,11 +2907,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,7 +2953,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3151,7 +3153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3231,7 +3233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3351,7 +3353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3371,7 +3373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3471,7 +3473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3511,7 +3513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +3533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3591,7 +3593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -3771,7 +3773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -3871,7 +3873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -3891,7 +3893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -3911,7 +3913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -4011,7 +4013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -4031,7 +4033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -4051,7 +4053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -4131,7 +4133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -4191,7 +4193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -4231,7 +4233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -4331,7 +4333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -4351,7 +4353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -4371,7 +4373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -4431,7 +4433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -4451,7 +4453,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -4551,7 +4553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -4631,7 +4633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>109</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -4711,7 +4713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -4731,7 +4733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -4791,7 +4793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4831,7 +4833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4851,7 +4853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -4871,7 +4873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -4971,7 +4973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5065,7 +5067,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -5274,7 +5276,7 @@
       <c r="C119" t="s">
         <v>157</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E119" t="s">
@@ -6421,7 +6423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>280</v>
       </c>
@@ -6441,7 +6443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>280</v>
       </c>
@@ -6461,7 +6463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>280</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>280</v>
       </c>
@@ -6501,7 +6503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>280</v>
       </c>
@@ -6521,7 +6523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>280</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>280</v>
       </c>
@@ -6561,7 +6563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>280</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>280</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>280</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>280</v>
       </c>
@@ -6641,7 +6643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>280</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>280</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>280</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>280</v>
       </c>
@@ -6721,7 +6723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>280</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>280</v>
       </c>
@@ -6761,7 +6763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>280</v>
       </c>
@@ -6781,7 +6783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>280</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>280</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>280</v>
       </c>
@@ -6841,7 +6843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>280</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>280</v>
       </c>
@@ -6881,7 +6883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>280</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>280</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>280</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>280</v>
       </c>
@@ -6961,7 +6963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>280</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>280</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>280</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>280</v>
       </c>
@@ -7041,7 +7043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>280</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>280</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>280</v>
       </c>
@@ -7101,7 +7103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>280</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>280</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>280</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>280</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>280</v>
       </c>
@@ -7201,7 +7203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>280</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>280</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>280</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>280</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>280</v>
       </c>
@@ -7301,7 +7303,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>280</v>
       </c>
@@ -7321,7 +7323,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>280</v>
       </c>
@@ -7341,7 +7343,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>280</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>280</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>280</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>280</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>280</v>
       </c>
@@ -7441,7 +7443,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>280</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>280</v>
       </c>
@@ -7481,7 +7483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>280</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>376</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>376</v>
       </c>
@@ -7541,7 +7543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>376</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>376</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>376</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>376</v>
       </c>
@@ -7621,7 +7623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>376</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>376</v>
       </c>
@@ -7661,7 +7663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>376</v>
       </c>
@@ -7681,7 +7683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>376</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>376</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>376</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>376</v>
       </c>
@@ -7761,7 +7763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>376</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>376</v>
       </c>
@@ -7801,7 +7803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>376</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>376</v>
       </c>
@@ -7841,7 +7843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>376</v>
       </c>
@@ -7861,7 +7863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>376</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>376</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>376</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>376</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>376</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>376</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>376</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>376</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>376</v>
       </c>
@@ -8041,7 +8043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>376</v>
       </c>
@@ -8061,7 +8063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>376</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>376</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>376</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>376</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>376</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>376</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>376</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>376</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>376</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>376</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>376</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>376</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>434</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>434</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>434</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>434</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>434</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>434</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>434</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>434</v>
       </c>
@@ -8461,7 +8463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>434</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>434</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>434</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>434</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>434</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>434</v>
       </c>
@@ -8581,7 +8583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>434</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>434</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>434</v>
       </c>
@@ -8641,7 +8643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>434</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>434</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>434</v>
       </c>
@@ -8701,7 +8703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>434</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>434</v>
       </c>
@@ -8741,7 +8743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>434</v>
       </c>
@@ -8761,7 +8763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>434</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>434</v>
       </c>
@@ -8801,7 +8803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>434</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>434</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>434</v>
       </c>
@@ -8861,7 +8863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>434</v>
       </c>
@@ -8881,7 +8883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>434</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>434</v>
       </c>
@@ -8921,7 +8923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>434</v>
       </c>
@@ -8941,7 +8943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>434</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>434</v>
       </c>
@@ -8981,7 +8983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>434</v>
       </c>
@@ -9001,7 +9003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>434</v>
       </c>
@@ -9021,7 +9023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>434</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>434</v>
       </c>
@@ -9061,7 +9063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>434</v>
       </c>
@@ -9081,7 +9083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>434</v>
       </c>
@@ -9101,7 +9103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>434</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>434</v>
       </c>
@@ -9141,7 +9143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>434</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>434</v>
       </c>
@@ -9181,7 +9183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>434</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>434</v>
       </c>
@@ -9221,7 +9223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>434</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>434</v>
       </c>
@@ -9261,7 +9263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>434</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>434</v>
       </c>
@@ -9301,7 +9303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>434</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>434</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>434</v>
       </c>
@@ -9361,7 +9363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>434</v>
       </c>
@@ -9381,7 +9383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>434</v>
       </c>
@@ -9401,7 +9403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>434</v>
       </c>
@@ -9421,7 +9423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>434</v>
       </c>
@@ -9441,7 +9443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>434</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>434</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>434</v>
       </c>
@@ -9501,7 +9503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>434</v>
       </c>
@@ -9521,7 +9523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>434</v>
       </c>
@@ -9541,7 +9543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>434</v>
       </c>
@@ -9561,7 +9563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>434</v>
       </c>
@@ -9581,7 +9583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>434</v>
       </c>
@@ -9601,7 +9603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>434</v>
       </c>
@@ -9621,7 +9623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>434</v>
       </c>
@@ -9641,7 +9643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>434</v>
       </c>
@@ -9661,7 +9663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>434</v>
       </c>
@@ -9681,7 +9683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>434</v>
       </c>
@@ -9701,7 +9703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>434</v>
       </c>
@@ -9721,7 +9723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>434</v>
       </c>
@@ -9741,7 +9743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>434</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>517</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>517</v>
       </c>
@@ -9801,7 +9803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>517</v>
       </c>
@@ -9821,7 +9823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>517</v>
       </c>
@@ -9841,7 +9843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>517</v>
       </c>
@@ -9861,7 +9863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>517</v>
       </c>
@@ -9881,7 +9883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>517</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>517</v>
       </c>
@@ -9921,7 +9923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>517</v>
       </c>
@@ -9941,7 +9943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>517</v>
       </c>
@@ -9961,7 +9963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>517</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>517</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>517</v>
       </c>
@@ -10021,7 +10023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>517</v>
       </c>
@@ -10041,7 +10043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>540</v>
       </c>
@@ -10061,7 +10063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>540</v>
       </c>
@@ -10081,7 +10083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>540</v>
       </c>
@@ -10101,7 +10103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>540</v>
       </c>
@@ -10121,7 +10123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>540</v>
       </c>
@@ -10141,7 +10143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>540</v>
       </c>
@@ -10161,7 +10163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>540</v>
       </c>
@@ -10181,7 +10183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>540</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>540</v>
       </c>
@@ -10221,7 +10223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>540</v>
       </c>
@@ -10241,7 +10243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>540</v>
       </c>
@@ -10261,7 +10263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>540</v>
       </c>
@@ -10281,7 +10283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>540</v>
       </c>
@@ -10301,7 +10303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>540</v>
       </c>
@@ -10321,7 +10323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>549</v>
       </c>
@@ -10341,7 +10343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>549</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>549</v>
       </c>
@@ -10381,7 +10383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>549</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>549</v>
       </c>
@@ -10421,7 +10423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>549</v>
       </c>
@@ -10441,7 +10443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>549</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>549</v>
       </c>
@@ -10481,7 +10483,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>549</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>549</v>
       </c>
@@ -10521,7 +10523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>549</v>
       </c>
@@ -10541,7 +10543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>549</v>
       </c>
@@ -10561,7 +10563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>549</v>
       </c>
@@ -10581,7 +10583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>549</v>
       </c>
@@ -10601,7 +10603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>549</v>
       </c>
@@ -10621,7 +10623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>549</v>
       </c>
@@ -10641,7 +10643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>549</v>
       </c>
@@ -10661,7 +10663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>549</v>
       </c>
@@ -10681,7 +10683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>549</v>
       </c>
@@ -10701,7 +10703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>549</v>
       </c>
@@ -10721,7 +10723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>549</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>549</v>
       </c>
@@ -10761,7 +10763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>549</v>
       </c>
@@ -10781,7 +10783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>549</v>
       </c>
@@ -10801,7 +10803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>549</v>
       </c>
@@ -10821,7 +10823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>549</v>
       </c>
@@ -10841,7 +10843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>549</v>
       </c>
@@ -10861,7 +10863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>549</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>549</v>
       </c>
@@ -10901,7 +10903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>549</v>
       </c>
@@ -10921,7 +10923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>557</v>
       </c>
@@ -10941,7 +10943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>557</v>
       </c>
@@ -10961,7 +10963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>557</v>
       </c>
@@ -10981,7 +10983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>557</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>557</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>557</v>
       </c>
@@ -11041,7 +11043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>557</v>
       </c>
@@ -11061,7 +11063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>557</v>
       </c>
@@ -11081,7 +11083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>557</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>557</v>
       </c>
@@ -11121,7 +11123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>557</v>
       </c>
@@ -11141,7 +11143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>557</v>
       </c>
@@ -11161,7 +11163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>557</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>557</v>
       </c>
@@ -11201,7 +11203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>557</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>557</v>
       </c>
@@ -11241,7 +11243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>557</v>
       </c>
@@ -11261,7 +11263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>557</v>
       </c>
@@ -11281,7 +11283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>557</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>557</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>557</v>
       </c>
@@ -11341,7 +11343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>557</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>557</v>
       </c>
@@ -11381,7 +11383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>557</v>
       </c>
@@ -11401,7 +11403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>557</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>557</v>
       </c>
@@ -11441,7 +11443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>557</v>
       </c>
@@ -11461,7 +11463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>557</v>
       </c>
@@ -11481,7 +11483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>557</v>
       </c>
@@ -11501,7 +11503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>557</v>
       </c>
@@ -11521,7 +11523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>557</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>557</v>
       </c>
@@ -11561,7 +11563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>557</v>
       </c>
@@ -11581,7 +11583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>557</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>557</v>
       </c>
@@ -11621,7 +11623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>557</v>
       </c>
@@ -11641,7 +11643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>557</v>
       </c>
@@ -11661,7 +11663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>557</v>
       </c>
@@ -11681,7 +11683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>557</v>
       </c>
@@ -11701,7 +11703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>557</v>
       </c>
@@ -11721,7 +11723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>557</v>
       </c>
@@ -11741,7 +11743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>565</v>
       </c>
@@ -11761,7 +11763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>565</v>
       </c>
@@ -11781,7 +11783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>565</v>
       </c>
@@ -11801,7 +11803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>565</v>
       </c>
@@ -11821,7 +11823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>565</v>
       </c>
@@ -11841,7 +11843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>565</v>
       </c>
@@ -11861,7 +11863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>565</v>
       </c>
@@ -11881,7 +11883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>565</v>
       </c>
@@ -11901,7 +11903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>565</v>
       </c>
@@ -11921,7 +11923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>565</v>
       </c>
@@ -11941,7 +11943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>565</v>
       </c>
@@ -11961,7 +11963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>565</v>
       </c>
@@ -11981,7 +11983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>565</v>
       </c>
@@ -12001,7 +12003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>565</v>
       </c>
@@ -12021,7 +12023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>565</v>
       </c>
@@ -12041,7 +12043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>565</v>
       </c>
@@ -12061,7 +12063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>565</v>
       </c>
@@ -12081,7 +12083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>565</v>
       </c>
@@ -12101,7 +12103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>565</v>
       </c>
@@ -12121,7 +12123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>565</v>
       </c>
@@ -12141,7 +12143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>565</v>
       </c>
@@ -12161,7 +12163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>565</v>
       </c>
@@ -12181,7 +12183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>565</v>
       </c>
@@ -12201,7 +12203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>565</v>
       </c>
@@ -12221,7 +12223,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>565</v>
       </c>
@@ -12241,7 +12243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>565</v>
       </c>
@@ -12261,7 +12263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>565</v>
       </c>
@@ -12281,7 +12283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>565</v>
       </c>
@@ -12301,7 +12303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>565</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>565</v>
       </c>
@@ -12341,7 +12343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>565</v>
       </c>
@@ -12361,7 +12363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>565</v>
       </c>
@@ -12381,7 +12383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>565</v>
       </c>
@@ -12401,7 +12403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>565</v>
       </c>
@@ -12421,7 +12423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>565</v>
       </c>
@@ -12441,7 +12443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>565</v>
       </c>
@@ -12461,7 +12463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>565</v>
       </c>
@@ -12481,7 +12483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>565</v>
       </c>
@@ -12501,7 +12503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>565</v>
       </c>
@@ -12521,7 +12523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>565</v>
       </c>
@@ -12541,7 +12543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>565</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>565</v>
       </c>
@@ -12581,7 +12583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>565</v>
       </c>
@@ -12601,7 +12603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>565</v>
       </c>
@@ -12621,7 +12623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>565</v>
       </c>
@@ -12641,7 +12643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>565</v>
       </c>
@@ -12661,7 +12663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>565</v>
       </c>
@@ -12681,7 +12683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>565</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>565</v>
       </c>
@@ -12721,7 +12723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>565</v>
       </c>
@@ -12741,7 +12743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>565</v>
       </c>
@@ -12761,7 +12763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>565</v>
       </c>
@@ -12781,7 +12783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>565</v>
       </c>
@@ -12801,7 +12803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>565</v>
       </c>
@@ -12821,7 +12823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>565</v>
       </c>
@@ -12841,7 +12843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>565</v>
       </c>
@@ -12861,7 +12863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>565</v>
       </c>
@@ -12881,7 +12883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>565</v>
       </c>
@@ -12901,7 +12903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>621</v>
       </c>
@@ -12921,7 +12923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>621</v>
       </c>
@@ -12941,7 +12943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>621</v>
       </c>
@@ -12961,7 +12963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>621</v>
       </c>
@@ -12981,7 +12983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>621</v>
       </c>
@@ -13001,7 +13003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>621</v>
       </c>
@@ -13021,7 +13023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>621</v>
       </c>
@@ -13041,7 +13043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>621</v>
       </c>
@@ -13061,7 +13063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>621</v>
       </c>
@@ -13081,7 +13083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>621</v>
       </c>
@@ -13101,7 +13103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>621</v>
       </c>
@@ -13121,7 +13123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>621</v>
       </c>
@@ -13141,7 +13143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>621</v>
       </c>
@@ -13161,7 +13163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>621</v>
       </c>
@@ -13181,7 +13183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>621</v>
       </c>
@@ -13201,7 +13203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>642</v>
       </c>
@@ -13221,7 +13223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>642</v>
       </c>
@@ -13241,7 +13243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>642</v>
       </c>
@@ -13261,7 +13263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>642</v>
       </c>
@@ -13281,7 +13283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>642</v>
       </c>
@@ -13301,7 +13303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>642</v>
       </c>
@@ -13321,7 +13323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>649</v>
       </c>
@@ -13341,7 +13343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>649</v>
       </c>
@@ -13361,7 +13363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>649</v>
       </c>
@@ -13381,7 +13383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>649</v>
       </c>
@@ -13401,7 +13403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>649</v>
       </c>
@@ -13421,7 +13423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>649</v>
       </c>
@@ -13441,7 +13443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>649</v>
       </c>
@@ -13461,7 +13463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>649</v>
       </c>
@@ -13481,7 +13483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>653</v>
       </c>
@@ -13501,7 +13503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>653</v>
       </c>
@@ -13521,7 +13523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>653</v>
       </c>
@@ -13541,7 +13543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>653</v>
       </c>
@@ -13561,7 +13563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>653</v>
       </c>
@@ -13581,7 +13583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>653</v>
       </c>
@@ -13601,7 +13603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>653</v>
       </c>
@@ -13621,7 +13623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>653</v>
       </c>
@@ -13641,7 +13643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>672</v>
       </c>
@@ -13661,7 +13663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>672</v>
       </c>
@@ -13681,7 +13683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>672</v>
       </c>
@@ -13701,7 +13703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>672</v>
       </c>
@@ -13721,7 +13723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>672</v>
       </c>
@@ -13741,7 +13743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>672</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>672</v>
       </c>
@@ -13781,7 +13783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>672</v>
       </c>
@@ -13801,7 +13803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>672</v>
       </c>
@@ -13821,7 +13823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>672</v>
       </c>
@@ -13841,7 +13843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>672</v>
       </c>
@@ -13861,7 +13863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>672</v>
       </c>
@@ -13882,7 +13884,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G555"/>
+  <autoFilter ref="A1:G555">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TAK-491"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameters!$A$1:$F$550</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameters!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="680">
   <si>
     <t>emi_master</t>
   </si>
@@ -2047,6 +2047,21 @@
   </si>
   <si>
     <t>tbd</t>
+  </si>
+  <si>
+    <t>PP_CM_IPT_H</t>
+  </si>
+  <si>
+    <t>COMP_AVG_HARDNESS</t>
+  </si>
+  <si>
+    <t>COAT_AVG_HARDNESS</t>
+  </si>
+  <si>
+    <t>range_min</t>
+  </si>
+  <si>
+    <t>range_max</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2101,6 +2116,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2471,11 +2489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F550"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,10 +2504,12 @@
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
-    <col min="7" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2508,8 +2528,14 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2529,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2549,7 +2575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2569,7 +2595,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2589,7 +2615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2609,7 +2635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2629,7 +2655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2649,7 +2675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2669,7 +2695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2689,7 +2715,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2709,7 +2735,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2729,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2749,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2769,7 +2795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2789,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -13489,8 +13515,310 @@
         <v>2</v>
       </c>
     </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C551" t="s">
+        <v>108</v>
+      </c>
+      <c r="D551" t="s">
+        <v>42</v>
+      </c>
+      <c r="E551" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F551" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C552" t="s">
+        <v>108</v>
+      </c>
+      <c r="D552" t="s">
+        <v>42</v>
+      </c>
+      <c r="E552" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F552" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C553" t="s">
+        <v>108</v>
+      </c>
+      <c r="D553" t="s">
+        <v>42</v>
+      </c>
+      <c r="E553" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F553" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C554" t="s">
+        <v>557</v>
+      </c>
+      <c r="D554" t="s">
+        <v>42</v>
+      </c>
+      <c r="E554" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F554" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C555" t="s">
+        <v>557</v>
+      </c>
+      <c r="D555" t="s">
+        <v>42</v>
+      </c>
+      <c r="E555" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F555" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C556" t="s">
+        <v>557</v>
+      </c>
+      <c r="D556" t="s">
+        <v>42</v>
+      </c>
+      <c r="E556" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F556" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C557" t="s">
+        <v>557</v>
+      </c>
+      <c r="D557" t="s">
+        <v>559</v>
+      </c>
+      <c r="E557" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F557" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C558" t="s">
+        <v>156</v>
+      </c>
+      <c r="D558" t="s">
+        <v>42</v>
+      </c>
+      <c r="E558" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F558" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C559" t="s">
+        <v>156</v>
+      </c>
+      <c r="D559" t="s">
+        <v>42</v>
+      </c>
+      <c r="E559" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F559" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C560" t="s">
+        <v>156</v>
+      </c>
+      <c r="D560" t="s">
+        <v>42</v>
+      </c>
+      <c r="E560" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F560" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C561" t="s">
+        <v>108</v>
+      </c>
+      <c r="D561" t="s">
+        <v>42</v>
+      </c>
+      <c r="F561" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C562" t="s">
+        <v>108</v>
+      </c>
+      <c r="D562" t="s">
+        <v>42</v>
+      </c>
+      <c r="F562" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C563" t="s">
+        <v>108</v>
+      </c>
+      <c r="D563" t="s">
+        <v>42</v>
+      </c>
+      <c r="F563" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C564" t="s">
+        <v>108</v>
+      </c>
+      <c r="D564" t="s">
+        <v>42</v>
+      </c>
+      <c r="F564" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C565" t="s">
+        <v>108</v>
+      </c>
+      <c r="D565" t="s">
+        <v>42</v>
+      </c>
+      <c r="F565" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C566" t="s">
+        <v>108</v>
+      </c>
+      <c r="D566" t="s">
+        <v>42</v>
+      </c>
+      <c r="F566" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F550"/>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -1904,7 +1904,7 @@
     <t>GRAN_ERH_RESULT</t>
   </si>
   <si>
-    <t>TIL_CF_DRY_T°C</t>
+    <t>TIL_CF_DRY_T\xb0C</t>
   </si>
 </sst>
 </file>

--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -1904,7 +1904,7 @@
     <t>GRAN_ERH_RESULT</t>
   </si>
   <si>
-    <t>TIL_CF_DRY_T\xb0C</t>
+    <t>TIL_CF_DRY_T°C</t>
   </si>
 </sst>
 </file>

--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -15,7 +15,7 @@
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameters!$A$1:$H$505</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameters!$A$1:$F$505</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="624">
   <si>
     <t>emi_master</t>
   </si>
@@ -1866,12 +1866,6 @@
   </si>
   <si>
     <t>tbd</t>
-  </si>
-  <si>
-    <t>range_min</t>
-  </si>
-  <si>
-    <t>range_max</t>
   </si>
   <si>
     <t>AG-JP</t>
@@ -2332,11 +2326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:F505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,12 +2341,10 @@
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="7" max="1023" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2371,14 +2363,8 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>613</v>
-      </c>
-      <c r="H1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2397,14 +2383,8 @@
       <c r="F2" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G2">
-        <v>999</v>
-      </c>
-      <c r="H2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>476</v>
       </c>
@@ -2423,14 +2403,8 @@
       <c r="F3" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G3">
-        <v>999</v>
-      </c>
-      <c r="H3">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>500</v>
       </c>
@@ -2449,14 +2423,8 @@
       <c r="F4" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G4">
-        <v>999</v>
-      </c>
-      <c r="H4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>581</v>
       </c>
@@ -2475,14 +2443,8 @@
       <c r="F5" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G5">
-        <v>999</v>
-      </c>
-      <c r="H5">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>581</v>
       </c>
@@ -2501,14 +2463,8 @@
       <c r="F6" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G6">
-        <v>999</v>
-      </c>
-      <c r="H6">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>581</v>
       </c>
@@ -2527,14 +2483,8 @@
       <c r="F7" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G7">
-        <v>999</v>
-      </c>
-      <c r="H7">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>581</v>
       </c>
@@ -2553,14 +2503,8 @@
       <c r="F8" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G8">
-        <v>999</v>
-      </c>
-      <c r="H8">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>581</v>
       </c>
@@ -2579,14 +2523,8 @@
       <c r="F9" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G9">
-        <v>999</v>
-      </c>
-      <c r="H9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>581</v>
       </c>
@@ -2605,14 +2543,8 @@
       <c r="F10" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G10">
-        <v>999</v>
-      </c>
-      <c r="H10">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>581</v>
       </c>
@@ -2631,14 +2563,8 @@
       <c r="F11" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G11">
-        <v>999</v>
-      </c>
-      <c r="H11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>581</v>
       </c>
@@ -2657,14 +2583,8 @@
       <c r="F12" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G12">
-        <v>999</v>
-      </c>
-      <c r="H12">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
@@ -2683,14 +2603,8 @@
       <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>999</v>
-      </c>
-      <c r="H13">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -2709,14 +2623,8 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>999</v>
-      </c>
-      <c r="H14">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2735,14 +2643,8 @@
       <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>999</v>
-      </c>
-      <c r="H15">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -2761,14 +2663,8 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>999</v>
-      </c>
-      <c r="H16">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
@@ -2787,14 +2683,8 @@
       <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="G17">
-        <v>999</v>
-      </c>
-      <c r="H17">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>485</v>
       </c>
@@ -2802,7 +2692,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2813,14 +2703,8 @@
       <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18">
-        <v>999</v>
-      </c>
-      <c r="H18">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>493</v>
       </c>
@@ -2828,7 +2712,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2839,14 +2723,8 @@
       <c r="F19" s="2">
         <v>2</v>
       </c>
-      <c r="G19">
-        <v>999</v>
-      </c>
-      <c r="H19">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>500</v>
       </c>
@@ -2865,14 +2743,8 @@
       <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>999</v>
-      </c>
-      <c r="H20">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2891,14 +2763,8 @@
       <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>999</v>
-      </c>
-      <c r="H21">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -2917,14 +2783,8 @@
       <c r="F22" s="2">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>999</v>
-      </c>
-      <c r="H22">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>137</v>
       </c>
@@ -2938,19 +2798,13 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G23">
-        <v>999</v>
-      </c>
-      <c r="H23">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>485</v>
       </c>
@@ -2958,7 +2812,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2969,14 +2823,8 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24">
-        <v>999</v>
-      </c>
-      <c r="H24">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>493</v>
       </c>
@@ -2984,7 +2832,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -2995,14 +2843,8 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25">
-        <v>999</v>
-      </c>
-      <c r="H25">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>500</v>
       </c>
@@ -3021,14 +2863,8 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>999</v>
-      </c>
-      <c r="H26">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>137</v>
       </c>
@@ -3042,19 +2878,13 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G27">
-        <v>999</v>
-      </c>
-      <c r="H27">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>137</v>
       </c>
@@ -3068,19 +2898,13 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G28">
-        <v>999</v>
-      </c>
-      <c r="H28">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>137</v>
       </c>
@@ -3094,19 +2918,13 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G29">
-        <v>999</v>
-      </c>
-      <c r="H29">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>137</v>
       </c>
@@ -3120,19 +2938,13 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G30">
-        <v>999</v>
-      </c>
-      <c r="H30">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
@@ -3146,19 +2958,13 @@
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G31">
-        <v>999</v>
-      </c>
-      <c r="H31">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>137</v>
       </c>
@@ -3172,19 +2978,13 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G32">
-        <v>999</v>
-      </c>
-      <c r="H32">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -3203,14 +3003,8 @@
       <c r="F33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G33">
-        <v>999</v>
-      </c>
-      <c r="H33">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -3229,14 +3023,8 @@
       <c r="F34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G34">
-        <v>999</v>
-      </c>
-      <c r="H34">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
@@ -3255,14 +3043,8 @@
       <c r="F35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G35">
-        <v>999</v>
-      </c>
-      <c r="H35">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -3281,14 +3063,8 @@
       <c r="F36" s="2">
         <v>2</v>
       </c>
-      <c r="G36">
-        <v>999</v>
-      </c>
-      <c r="H36">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -3307,14 +3083,8 @@
       <c r="F37" s="2">
         <v>2</v>
       </c>
-      <c r="G37">
-        <v>999</v>
-      </c>
-      <c r="H37">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>137</v>
       </c>
@@ -3333,14 +3103,8 @@
       <c r="F38" s="2">
         <v>2</v>
       </c>
-      <c r="G38">
-        <v>999</v>
-      </c>
-      <c r="H38">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>485</v>
       </c>
@@ -3348,7 +3112,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -3359,14 +3123,8 @@
       <c r="F39" s="2">
         <v>2</v>
       </c>
-      <c r="G39">
-        <v>999</v>
-      </c>
-      <c r="H39">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>493</v>
       </c>
@@ -3374,7 +3132,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
@@ -3385,14 +3143,8 @@
       <c r="F40" s="2">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>999</v>
-      </c>
-      <c r="H40">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>500</v>
       </c>
@@ -3411,14 +3163,8 @@
       <c r="F41" s="2">
         <v>2</v>
       </c>
-      <c r="G41">
-        <v>999</v>
-      </c>
-      <c r="H41">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3437,14 +3183,8 @@
       <c r="F42" s="2">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>999</v>
-      </c>
-      <c r="H42">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
@@ -3463,14 +3203,8 @@
       <c r="F43" s="2">
         <v>0</v>
       </c>
-      <c r="G43">
-        <v>999</v>
-      </c>
-      <c r="H43">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>493</v>
       </c>
@@ -3478,7 +3212,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -3489,14 +3223,8 @@
       <c r="F44" s="2">
         <v>0</v>
       </c>
-      <c r="G44">
-        <v>999</v>
-      </c>
-      <c r="H44">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -3515,14 +3243,8 @@
       <c r="F45" s="2">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>999</v>
-      </c>
-      <c r="H45">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -3541,14 +3263,8 @@
       <c r="F46" s="2">
         <v>0</v>
       </c>
-      <c r="G46">
-        <v>999</v>
-      </c>
-      <c r="H46">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>611</v>
       </c>
@@ -3567,14 +3283,8 @@
       <c r="F47" s="2">
         <v>2</v>
       </c>
-      <c r="G47">
-        <v>999</v>
-      </c>
-      <c r="H47">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>611</v>
       </c>
@@ -3593,14 +3303,8 @@
       <c r="F48" s="2">
         <v>2</v>
       </c>
-      <c r="G48">
-        <v>999</v>
-      </c>
-      <c r="H48">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>370</v>
       </c>
@@ -3619,14 +3323,8 @@
       <c r="F49" s="2">
         <v>2</v>
       </c>
-      <c r="G49">
-        <v>999</v>
-      </c>
-      <c r="H49">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>370</v>
       </c>
@@ -3645,14 +3343,8 @@
       <c r="F50" s="2">
         <v>2</v>
       </c>
-      <c r="G50">
-        <v>999</v>
-      </c>
-      <c r="H50">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>370</v>
       </c>
@@ -3671,14 +3363,8 @@
       <c r="F51" s="2">
         <v>2</v>
       </c>
-      <c r="G51">
-        <v>999</v>
-      </c>
-      <c r="H51">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>370</v>
       </c>
@@ -3697,14 +3383,8 @@
       <c r="F52" s="2">
         <v>2</v>
       </c>
-      <c r="G52">
-        <v>999</v>
-      </c>
-      <c r="H52">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>370</v>
       </c>
@@ -3723,14 +3403,8 @@
       <c r="F53" s="2">
         <v>2</v>
       </c>
-      <c r="G53">
-        <v>999</v>
-      </c>
-      <c r="H53">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>370</v>
       </c>
@@ -3749,14 +3423,8 @@
       <c r="F54" s="2">
         <v>2</v>
       </c>
-      <c r="G54">
-        <v>999</v>
-      </c>
-      <c r="H54">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>370</v>
       </c>
@@ -3775,14 +3443,8 @@
       <c r="F55" s="2">
         <v>2</v>
       </c>
-      <c r="G55">
-        <v>999</v>
-      </c>
-      <c r="H55">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>570</v>
       </c>
@@ -3801,14 +3463,8 @@
       <c r="F56" s="2">
         <v>2</v>
       </c>
-      <c r="G56">
-        <v>999</v>
-      </c>
-      <c r="H56">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>370</v>
       </c>
@@ -3827,14 +3483,8 @@
       <c r="F57" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G57">
-        <v>999</v>
-      </c>
-      <c r="H57">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>370</v>
       </c>
@@ -3853,14 +3503,8 @@
       <c r="F58" s="2">
         <v>2</v>
       </c>
-      <c r="G58">
-        <v>999</v>
-      </c>
-      <c r="H58">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>570</v>
       </c>
@@ -3879,14 +3523,8 @@
       <c r="F59" s="2">
         <v>2</v>
       </c>
-      <c r="G59">
-        <v>999</v>
-      </c>
-      <c r="H59">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>570</v>
       </c>
@@ -3905,19 +3543,13 @@
       <c r="F60" s="2">
         <v>2</v>
       </c>
-      <c r="G60">
-        <v>999</v>
-      </c>
-      <c r="H60">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C61" t="s">
         <v>139</v>
@@ -3931,14 +3563,8 @@
       <c r="F61" s="2">
         <v>0</v>
       </c>
-      <c r="G61">
-        <v>999</v>
-      </c>
-      <c r="H61">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>549</v>
       </c>
@@ -3957,14 +3583,8 @@
       <c r="F62" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G62">
-        <v>999</v>
-      </c>
-      <c r="H62">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>215</v>
       </c>
@@ -3983,14 +3603,8 @@
       <c r="F63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G63">
-        <v>999</v>
-      </c>
-      <c r="H63">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>215</v>
       </c>
@@ -4009,14 +3623,8 @@
       <c r="F64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G64">
-        <v>999</v>
-      </c>
-      <c r="H64">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>215</v>
       </c>
@@ -4035,14 +3643,8 @@
       <c r="F65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G65">
-        <v>999</v>
-      </c>
-      <c r="H65">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
@@ -4061,14 +3663,8 @@
       <c r="F66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G66">
-        <v>999</v>
-      </c>
-      <c r="H66">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>215</v>
       </c>
@@ -4087,14 +3683,8 @@
       <c r="F67" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G67">
-        <v>999</v>
-      </c>
-      <c r="H67">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>215</v>
       </c>
@@ -4113,14 +3703,8 @@
       <c r="F68" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G68">
-        <v>999</v>
-      </c>
-      <c r="H68">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>215</v>
       </c>
@@ -4139,14 +3723,8 @@
       <c r="F69" s="2">
         <v>2</v>
       </c>
-      <c r="G69">
-        <v>999</v>
-      </c>
-      <c r="H69">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -4165,14 +3743,8 @@
       <c r="F70" s="2">
         <v>2</v>
       </c>
-      <c r="G70">
-        <v>999</v>
-      </c>
-      <c r="H70">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -4191,14 +3763,8 @@
       <c r="F71" s="2">
         <v>2</v>
       </c>
-      <c r="G71">
-        <v>999</v>
-      </c>
-      <c r="H71">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -4217,14 +3783,8 @@
       <c r="F72" s="2">
         <v>2</v>
       </c>
-      <c r="G72">
-        <v>999</v>
-      </c>
-      <c r="H72">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>215</v>
       </c>
@@ -4243,14 +3803,8 @@
       <c r="F73" s="2">
         <v>2</v>
       </c>
-      <c r="G73">
-        <v>999</v>
-      </c>
-      <c r="H73">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>215</v>
       </c>
@@ -4269,14 +3823,8 @@
       <c r="F74" s="2">
         <v>2</v>
       </c>
-      <c r="G74">
-        <v>999</v>
-      </c>
-      <c r="H74">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>215</v>
       </c>
@@ -4295,14 +3843,8 @@
       <c r="F75" s="2">
         <v>2</v>
       </c>
-      <c r="G75">
-        <v>999</v>
-      </c>
-      <c r="H75">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>549</v>
       </c>
@@ -4321,14 +3863,8 @@
       <c r="F76" s="2">
         <v>2</v>
       </c>
-      <c r="G76">
-        <v>999</v>
-      </c>
-      <c r="H76">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>215</v>
       </c>
@@ -4347,14 +3883,8 @@
       <c r="F77" s="2">
         <v>2</v>
       </c>
-      <c r="G77">
-        <v>999</v>
-      </c>
-      <c r="H77">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>215</v>
       </c>
@@ -4373,14 +3903,8 @@
       <c r="F78" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G78">
-        <v>999</v>
-      </c>
-      <c r="H78">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>549</v>
       </c>
@@ -4399,14 +3923,8 @@
       <c r="F79" s="2">
         <v>2</v>
       </c>
-      <c r="G79">
-        <v>999</v>
-      </c>
-      <c r="H79">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>215</v>
       </c>
@@ -4425,14 +3943,8 @@
       <c r="F80" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G80">
-        <v>999</v>
-      </c>
-      <c r="H80">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>215</v>
       </c>
@@ -4451,14 +3963,8 @@
       <c r="F81" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G81">
-        <v>999</v>
-      </c>
-      <c r="H81">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>215</v>
       </c>
@@ -4477,14 +3983,8 @@
       <c r="F82" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G82">
-        <v>999</v>
-      </c>
-      <c r="H82">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>549</v>
       </c>
@@ -4503,14 +4003,8 @@
       <c r="F83" s="2">
         <v>2</v>
       </c>
-      <c r="G83">
-        <v>999</v>
-      </c>
-      <c r="H83">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>215</v>
       </c>
@@ -4529,14 +4023,8 @@
       <c r="F84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G84">
-        <v>999</v>
-      </c>
-      <c r="H84">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>215</v>
       </c>
@@ -4555,14 +4043,8 @@
       <c r="F85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G85">
-        <v>999</v>
-      </c>
-      <c r="H85">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>215</v>
       </c>
@@ -4581,14 +4063,8 @@
       <c r="F86" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G86">
-        <v>999</v>
-      </c>
-      <c r="H86">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>215</v>
       </c>
@@ -4607,14 +4083,8 @@
       <c r="F87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G87">
-        <v>999</v>
-      </c>
-      <c r="H87">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>215</v>
       </c>
@@ -4633,14 +4103,8 @@
       <c r="F88" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G88">
-        <v>999</v>
-      </c>
-      <c r="H88">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>215</v>
       </c>
@@ -4659,14 +4123,8 @@
       <c r="F89" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G89">
-        <v>999</v>
-      </c>
-      <c r="H89">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>215</v>
       </c>
@@ -4685,14 +4143,8 @@
       <c r="F90" s="2">
         <v>2</v>
       </c>
-      <c r="G90">
-        <v>999</v>
-      </c>
-      <c r="H90">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>215</v>
       </c>
@@ -4711,14 +4163,8 @@
       <c r="F91" s="2">
         <v>2</v>
       </c>
-      <c r="G91">
-        <v>999</v>
-      </c>
-      <c r="H91">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>215</v>
       </c>
@@ -4737,14 +4183,8 @@
       <c r="F92" s="2">
         <v>2</v>
       </c>
-      <c r="G92">
-        <v>999</v>
-      </c>
-      <c r="H92">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>215</v>
       </c>
@@ -4763,14 +4203,8 @@
       <c r="F93" s="2">
         <v>2</v>
       </c>
-      <c r="G93">
-        <v>999</v>
-      </c>
-      <c r="H93">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>215</v>
       </c>
@@ -4789,14 +4223,8 @@
       <c r="F94" s="2">
         <v>2</v>
       </c>
-      <c r="G94">
-        <v>999</v>
-      </c>
-      <c r="H94">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>215</v>
       </c>
@@ -4815,14 +4243,8 @@
       <c r="F95" s="2">
         <v>2</v>
       </c>
-      <c r="G95">
-        <v>999</v>
-      </c>
-      <c r="H95">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>549</v>
       </c>
@@ -4841,14 +4263,8 @@
       <c r="F96" s="2">
         <v>2</v>
       </c>
-      <c r="G96">
-        <v>999</v>
-      </c>
-      <c r="H96">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>549</v>
       </c>
@@ -4867,14 +4283,8 @@
       <c r="F97" s="2">
         <v>2</v>
       </c>
-      <c r="G97">
-        <v>999</v>
-      </c>
-      <c r="H97">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>549</v>
       </c>
@@ -4893,14 +4303,8 @@
       <c r="F98" s="2">
         <v>2</v>
       </c>
-      <c r="G98">
-        <v>999</v>
-      </c>
-      <c r="H98">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>215</v>
       </c>
@@ -4919,14 +4323,8 @@
       <c r="F99" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G99">
-        <v>999</v>
-      </c>
-      <c r="H99">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>215</v>
       </c>
@@ -4945,14 +4343,8 @@
       <c r="F100" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G100">
-        <v>999</v>
-      </c>
-      <c r="H100">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
@@ -4971,14 +4363,8 @@
       <c r="F101" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G101">
-        <v>999</v>
-      </c>
-      <c r="H101">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>215</v>
       </c>
@@ -4997,14 +4383,8 @@
       <c r="F102" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G102">
-        <v>999</v>
-      </c>
-      <c r="H102">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>215</v>
       </c>
@@ -5023,14 +4403,8 @@
       <c r="F103" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G103">
-        <v>999</v>
-      </c>
-      <c r="H103">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>215</v>
       </c>
@@ -5049,14 +4423,8 @@
       <c r="F104" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G104">
-        <v>999</v>
-      </c>
-      <c r="H104">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>549</v>
       </c>
@@ -5075,14 +4443,8 @@
       <c r="F105" s="2">
         <v>2</v>
       </c>
-      <c r="G105">
-        <v>999</v>
-      </c>
-      <c r="H105">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -5101,14 +4463,8 @@
       <c r="F106" s="2">
         <v>2</v>
       </c>
-      <c r="G106">
-        <v>999</v>
-      </c>
-      <c r="H106">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>215</v>
       </c>
@@ -5127,14 +4483,8 @@
       <c r="F107" s="2">
         <v>2</v>
       </c>
-      <c r="G107">
-        <v>999</v>
-      </c>
-      <c r="H107">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>215</v>
       </c>
@@ -5153,14 +4503,8 @@
       <c r="F108" s="2">
         <v>2</v>
       </c>
-      <c r="G108">
-        <v>999</v>
-      </c>
-      <c r="H108">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>215</v>
       </c>
@@ -5179,14 +4523,8 @@
       <c r="F109" s="2">
         <v>2</v>
       </c>
-      <c r="G109">
-        <v>999</v>
-      </c>
-      <c r="H109">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>215</v>
       </c>
@@ -5205,14 +4543,8 @@
       <c r="F110" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G110">
-        <v>999</v>
-      </c>
-      <c r="H110">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>215</v>
       </c>
@@ -5231,14 +4563,8 @@
       <c r="F111" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G111">
-        <v>999</v>
-      </c>
-      <c r="H111">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>215</v>
       </c>
@@ -5257,14 +4583,8 @@
       <c r="F112" s="2">
         <v>0</v>
       </c>
-      <c r="G112">
-        <v>999</v>
-      </c>
-      <c r="H112">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>549</v>
       </c>
@@ -5283,14 +4603,8 @@
       <c r="F113" s="2">
         <v>2</v>
       </c>
-      <c r="G113">
-        <v>999</v>
-      </c>
-      <c r="H113">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>215</v>
       </c>
@@ -5309,14 +4623,8 @@
       <c r="F114" s="2">
         <v>0</v>
       </c>
-      <c r="G114">
-        <v>999</v>
-      </c>
-      <c r="H114">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>215</v>
       </c>
@@ -5335,14 +4643,8 @@
       <c r="F115" s="2">
         <v>0</v>
       </c>
-      <c r="G115">
-        <v>999</v>
-      </c>
-      <c r="H115">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>215</v>
       </c>
@@ -5361,14 +4663,8 @@
       <c r="F116" s="2">
         <v>0</v>
       </c>
-      <c r="G116">
-        <v>999</v>
-      </c>
-      <c r="H116">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>215</v>
       </c>
@@ -5387,14 +4683,8 @@
       <c r="F117" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G117">
-        <v>999</v>
-      </c>
-      <c r="H117">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>215</v>
       </c>
@@ -5413,14 +4703,8 @@
       <c r="F118" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G118">
-        <v>999</v>
-      </c>
-      <c r="H118">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>549</v>
       </c>
@@ -5439,14 +4723,8 @@
       <c r="F119" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G119">
-        <v>999</v>
-      </c>
-      <c r="H119">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>549</v>
       </c>
@@ -5465,14 +4743,8 @@
       <c r="F120" s="2">
         <v>2</v>
       </c>
-      <c r="G120">
-        <v>999</v>
-      </c>
-      <c r="H120">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>215</v>
       </c>
@@ -5491,14 +4763,8 @@
       <c r="F121" s="2">
         <v>0</v>
       </c>
-      <c r="G121">
-        <v>999</v>
-      </c>
-      <c r="H121">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>549</v>
       </c>
@@ -5517,14 +4783,8 @@
       <c r="F122" s="2">
         <v>2</v>
       </c>
-      <c r="G122">
-        <v>999</v>
-      </c>
-      <c r="H122">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>215</v>
       </c>
@@ -5543,14 +4803,8 @@
       <c r="F123" s="2">
         <v>0</v>
       </c>
-      <c r="G123">
-        <v>999</v>
-      </c>
-      <c r="H123">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>215</v>
       </c>
@@ -5569,14 +4823,8 @@
       <c r="F124" s="2">
         <v>0</v>
       </c>
-      <c r="G124">
-        <v>999</v>
-      </c>
-      <c r="H124">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>215</v>
       </c>
@@ -5595,14 +4843,8 @@
       <c r="F125" s="2">
         <v>0</v>
       </c>
-      <c r="G125">
-        <v>999</v>
-      </c>
-      <c r="H125">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>215</v>
       </c>
@@ -5621,14 +4863,8 @@
       <c r="F126" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G126">
-        <v>999</v>
-      </c>
-      <c r="H126">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>215</v>
       </c>
@@ -5647,14 +4883,8 @@
       <c r="F127" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G127">
-        <v>999</v>
-      </c>
-      <c r="H127">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>311</v>
       </c>
@@ -5673,14 +4903,8 @@
       <c r="F128" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G128">
-        <v>999</v>
-      </c>
-      <c r="H128">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>611</v>
       </c>
@@ -5699,14 +4923,8 @@
       <c r="F129" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G129">
-        <v>999</v>
-      </c>
-      <c r="H129">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>577</v>
       </c>
@@ -5725,14 +4943,8 @@
       <c r="F130" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G130">
-        <v>999</v>
-      </c>
-      <c r="H130">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>311</v>
       </c>
@@ -5751,14 +4963,8 @@
       <c r="F131" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G131">
-        <v>999</v>
-      </c>
-      <c r="H131">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>311</v>
       </c>
@@ -5777,14 +4983,8 @@
       <c r="F132" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G132">
-        <v>999</v>
-      </c>
-      <c r="H132">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>311</v>
       </c>
@@ -5803,14 +5003,8 @@
       <c r="F133" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G133">
-        <v>999</v>
-      </c>
-      <c r="H133">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>311</v>
       </c>
@@ -5829,14 +5023,8 @@
       <c r="F134" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G134">
-        <v>999</v>
-      </c>
-      <c r="H134">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>311</v>
       </c>
@@ -5855,14 +5043,8 @@
       <c r="F135" s="2">
         <v>2</v>
       </c>
-      <c r="G135">
-        <v>999</v>
-      </c>
-      <c r="H135">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>611</v>
       </c>
@@ -5881,14 +5063,8 @@
       <c r="F136" s="2">
         <v>2</v>
       </c>
-      <c r="G136">
-        <v>999</v>
-      </c>
-      <c r="H136">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>577</v>
       </c>
@@ -5907,14 +5083,8 @@
       <c r="F137" s="2">
         <v>2</v>
       </c>
-      <c r="G137">
-        <v>999</v>
-      </c>
-      <c r="H137">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>311</v>
       </c>
@@ -5933,14 +5103,8 @@
       <c r="F138" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G138">
-        <v>999</v>
-      </c>
-      <c r="H138">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>311</v>
       </c>
@@ -5959,14 +5123,8 @@
       <c r="F139" s="2">
         <v>2</v>
       </c>
-      <c r="G139">
-        <v>999</v>
-      </c>
-      <c r="H139">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>311</v>
       </c>
@@ -5985,14 +5143,8 @@
       <c r="F140" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G140">
-        <v>999</v>
-      </c>
-      <c r="H140">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>311</v>
       </c>
@@ -6011,14 +5163,8 @@
       <c r="F141" s="2">
         <v>2</v>
       </c>
-      <c r="G141">
-        <v>999</v>
-      </c>
-      <c r="H141">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>611</v>
       </c>
@@ -6037,14 +5183,8 @@
       <c r="F142" s="2">
         <v>2</v>
       </c>
-      <c r="G142">
-        <v>999</v>
-      </c>
-      <c r="H142">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>577</v>
       </c>
@@ -6063,14 +5203,8 @@
       <c r="F143" s="2">
         <v>2</v>
       </c>
-      <c r="G143">
-        <v>999</v>
-      </c>
-      <c r="H143">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>311</v>
       </c>
@@ -6089,14 +5223,8 @@
       <c r="F144" s="2">
         <v>2</v>
       </c>
-      <c r="G144">
-        <v>999</v>
-      </c>
-      <c r="H144">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>311</v>
       </c>
@@ -6115,14 +5243,8 @@
       <c r="F145" s="2">
         <v>2</v>
       </c>
-      <c r="G145">
-        <v>999</v>
-      </c>
-      <c r="H145">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>311</v>
       </c>
@@ -6141,14 +5263,8 @@
       <c r="F146" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G146">
-        <v>999</v>
-      </c>
-      <c r="H146">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>311</v>
       </c>
@@ -6167,14 +5283,8 @@
       <c r="F147" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G147">
-        <v>999</v>
-      </c>
-      <c r="H147">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>311</v>
       </c>
@@ -6193,14 +5303,8 @@
       <c r="F148" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G148">
-        <v>999</v>
-      </c>
-      <c r="H148">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>311</v>
       </c>
@@ -6219,14 +5323,8 @@
       <c r="F149" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G149">
-        <v>999</v>
-      </c>
-      <c r="H149">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>311</v>
       </c>
@@ -6245,14 +5343,8 @@
       <c r="F150" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G150">
-        <v>999</v>
-      </c>
-      <c r="H150">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>311</v>
       </c>
@@ -6271,14 +5363,8 @@
       <c r="F151" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G151">
-        <v>999</v>
-      </c>
-      <c r="H151">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>311</v>
       </c>
@@ -6297,14 +5383,8 @@
       <c r="F152" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G152">
-        <v>999</v>
-      </c>
-      <c r="H152">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>311</v>
       </c>
@@ -6323,14 +5403,8 @@
       <c r="F153" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G153">
-        <v>999</v>
-      </c>
-      <c r="H153">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -6349,14 +5423,8 @@
       <c r="F154" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G154">
-        <v>999</v>
-      </c>
-      <c r="H154">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>311</v>
       </c>
@@ -6375,14 +5443,8 @@
       <c r="F155" s="2">
         <v>2</v>
       </c>
-      <c r="G155">
-        <v>999</v>
-      </c>
-      <c r="H155">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>577</v>
       </c>
@@ -6401,14 +5463,8 @@
       <c r="F156" s="2">
         <v>2</v>
       </c>
-      <c r="G156">
-        <v>999</v>
-      </c>
-      <c r="H156">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>311</v>
       </c>
@@ -6427,14 +5483,8 @@
       <c r="F157" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G157">
-        <v>999</v>
-      </c>
-      <c r="H157">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>611</v>
       </c>
@@ -6453,14 +5503,8 @@
       <c r="F158" s="2">
         <v>2</v>
       </c>
-      <c r="G158">
-        <v>999</v>
-      </c>
-      <c r="H158">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>311</v>
       </c>
@@ -6479,14 +5523,8 @@
       <c r="F159" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G159">
-        <v>999</v>
-      </c>
-      <c r="H159">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>311</v>
       </c>
@@ -6505,14 +5543,8 @@
       <c r="F160" s="2">
         <v>2</v>
       </c>
-      <c r="G160">
-        <v>999</v>
-      </c>
-      <c r="H160">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>311</v>
       </c>
@@ -6531,14 +5563,8 @@
       <c r="F161" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G161">
-        <v>999</v>
-      </c>
-      <c r="H161">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>311</v>
       </c>
@@ -6557,14 +5583,8 @@
       <c r="F162" s="2">
         <v>2</v>
       </c>
-      <c r="G162">
-        <v>999</v>
-      </c>
-      <c r="H162">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>611</v>
       </c>
@@ -6583,14 +5603,8 @@
       <c r="F163" s="2">
         <v>2</v>
       </c>
-      <c r="G163">
-        <v>999</v>
-      </c>
-      <c r="H163">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>577</v>
       </c>
@@ -6609,14 +5623,8 @@
       <c r="F164" s="2">
         <v>2</v>
       </c>
-      <c r="G164">
-        <v>999</v>
-      </c>
-      <c r="H164">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>311</v>
       </c>
@@ -6635,14 +5643,8 @@
       <c r="F165" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G165">
-        <v>999</v>
-      </c>
-      <c r="H165">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>311</v>
       </c>
@@ -6661,14 +5663,8 @@
       <c r="F166" s="2">
         <v>2</v>
       </c>
-      <c r="G166">
-        <v>999</v>
-      </c>
-      <c r="H166">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>311</v>
       </c>
@@ -6687,14 +5683,8 @@
       <c r="F167" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G167">
-        <v>999</v>
-      </c>
-      <c r="H167">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>611</v>
       </c>
@@ -6713,14 +5703,8 @@
       <c r="F168" s="2">
         <v>2</v>
       </c>
-      <c r="G168">
-        <v>999</v>
-      </c>
-      <c r="H168">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>370</v>
       </c>
@@ -6739,14 +5723,8 @@
       <c r="F169" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G169">
-        <v>999</v>
-      </c>
-      <c r="H169">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>370</v>
       </c>
@@ -6765,14 +5743,8 @@
       <c r="F170" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G170">
-        <v>999</v>
-      </c>
-      <c r="H170">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>370</v>
       </c>
@@ -6791,14 +5763,8 @@
       <c r="F171" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G171">
-        <v>999</v>
-      </c>
-      <c r="H171">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>370</v>
       </c>
@@ -6817,14 +5783,8 @@
       <c r="F172" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G172">
-        <v>999</v>
-      </c>
-      <c r="H172">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>370</v>
       </c>
@@ -6843,14 +5803,8 @@
       <c r="F173" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G173">
-        <v>999</v>
-      </c>
-      <c r="H173">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>370</v>
       </c>
@@ -6869,14 +5823,8 @@
       <c r="F174" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G174">
-        <v>999</v>
-      </c>
-      <c r="H174">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>370</v>
       </c>
@@ -6895,14 +5843,8 @@
       <c r="F175" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G175">
-        <v>999</v>
-      </c>
-      <c r="H175">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>311</v>
       </c>
@@ -6921,14 +5863,8 @@
       <c r="F176" s="2">
         <v>2</v>
       </c>
-      <c r="G176">
-        <v>999</v>
-      </c>
-      <c r="H176">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>370</v>
       </c>
@@ -6947,14 +5883,8 @@
       <c r="F177" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G177">
-        <v>999</v>
-      </c>
-      <c r="H177">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>549</v>
       </c>
@@ -6973,14 +5903,8 @@
       <c r="F178" s="2">
         <v>2</v>
       </c>
-      <c r="G178">
-        <v>999</v>
-      </c>
-      <c r="H178">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>611</v>
       </c>
@@ -6999,14 +5923,8 @@
       <c r="F179" s="2">
         <v>2</v>
       </c>
-      <c r="G179">
-        <v>999</v>
-      </c>
-      <c r="H179">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>570</v>
       </c>
@@ -7025,14 +5943,8 @@
       <c r="F180" s="2">
         <v>2</v>
       </c>
-      <c r="G180">
-        <v>999</v>
-      </c>
-      <c r="H180">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>577</v>
       </c>
@@ -7051,14 +5963,8 @@
       <c r="F181" s="2">
         <v>2</v>
       </c>
-      <c r="G181">
-        <v>999</v>
-      </c>
-      <c r="H181">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>370</v>
       </c>
@@ -7077,14 +5983,8 @@
       <c r="F182" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G182">
-        <v>999</v>
-      </c>
-      <c r="H182">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>370</v>
       </c>
@@ -7103,14 +6003,8 @@
       <c r="F183" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G183">
-        <v>999</v>
-      </c>
-      <c r="H183">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>370</v>
       </c>
@@ -7129,14 +6023,8 @@
       <c r="F184" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G184">
-        <v>999</v>
-      </c>
-      <c r="H184">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>370</v>
       </c>
@@ -7155,14 +6043,8 @@
       <c r="F185" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G185">
-        <v>999</v>
-      </c>
-      <c r="H185">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>370</v>
       </c>
@@ -7181,14 +6063,8 @@
       <c r="F186" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G186">
-        <v>999</v>
-      </c>
-      <c r="H186">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>370</v>
       </c>
@@ -7207,14 +6083,8 @@
       <c r="F187" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G187">
-        <v>999</v>
-      </c>
-      <c r="H187">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>370</v>
       </c>
@@ -7233,14 +6103,8 @@
       <c r="F188" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G188">
-        <v>999</v>
-      </c>
-      <c r="H188">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>549</v>
       </c>
@@ -7259,14 +6123,8 @@
       <c r="F189" s="2">
         <v>2</v>
       </c>
-      <c r="G189">
-        <v>999</v>
-      </c>
-      <c r="H189">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>611</v>
       </c>
@@ -7285,14 +6143,8 @@
       <c r="F190" s="2">
         <v>2</v>
       </c>
-      <c r="G190">
-        <v>999</v>
-      </c>
-      <c r="H190">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>570</v>
       </c>
@@ -7311,14 +6163,8 @@
       <c r="F191" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G191">
-        <v>999</v>
-      </c>
-      <c r="H191">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>577</v>
       </c>
@@ -7337,14 +6183,8 @@
       <c r="F192" s="2">
         <v>2</v>
       </c>
-      <c r="G192">
-        <v>999</v>
-      </c>
-      <c r="H192">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>370</v>
       </c>
@@ -7363,14 +6203,8 @@
       <c r="F193" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G193">
-        <v>999</v>
-      </c>
-      <c r="H193">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>370</v>
       </c>
@@ -7389,14 +6223,8 @@
       <c r="F194" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G194">
-        <v>999</v>
-      </c>
-      <c r="H194">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>370</v>
       </c>
@@ -7415,14 +6243,8 @@
       <c r="F195" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G195">
-        <v>999</v>
-      </c>
-      <c r="H195">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>370</v>
       </c>
@@ -7441,14 +6263,8 @@
       <c r="F196" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G196">
-        <v>999</v>
-      </c>
-      <c r="H196">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>370</v>
       </c>
@@ -7467,14 +6283,8 @@
       <c r="F197" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G197">
-        <v>999</v>
-      </c>
-      <c r="H197">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>370</v>
       </c>
@@ -7493,14 +6303,8 @@
       <c r="F198" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G198">
-        <v>999</v>
-      </c>
-      <c r="H198">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>370</v>
       </c>
@@ -7519,14 +6323,8 @@
       <c r="F199" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G199">
-        <v>999</v>
-      </c>
-      <c r="H199">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>370</v>
       </c>
@@ -7545,14 +6343,8 @@
       <c r="F200" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G200">
-        <v>999</v>
-      </c>
-      <c r="H200">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>370</v>
       </c>
@@ -7571,14 +6363,8 @@
       <c r="F201" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G201">
-        <v>999</v>
-      </c>
-      <c r="H201">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>370</v>
       </c>
@@ -7597,14 +6383,8 @@
       <c r="F202" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G202">
-        <v>999</v>
-      </c>
-      <c r="H202">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>370</v>
       </c>
@@ -7623,14 +6403,8 @@
       <c r="F203" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G203">
-        <v>999</v>
-      </c>
-      <c r="H203">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>370</v>
       </c>
@@ -7649,14 +6423,8 @@
       <c r="F204" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G204">
-        <v>999</v>
-      </c>
-      <c r="H204">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>370</v>
       </c>
@@ -7675,14 +6443,8 @@
       <c r="F205" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G205">
-        <v>999</v>
-      </c>
-      <c r="H205">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>370</v>
       </c>
@@ -7701,14 +6463,8 @@
       <c r="F206" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G206">
-        <v>999</v>
-      </c>
-      <c r="H206">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>370</v>
       </c>
@@ -7727,14 +6483,8 @@
       <c r="F207" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G207">
-        <v>999</v>
-      </c>
-      <c r="H207">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>370</v>
       </c>
@@ -7753,14 +6503,8 @@
       <c r="F208" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G208">
-        <v>999</v>
-      </c>
-      <c r="H208">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>137</v>
       </c>
@@ -7779,14 +6523,8 @@
       <c r="F209" s="2">
         <v>2</v>
       </c>
-      <c r="G209">
-        <v>999</v>
-      </c>
-      <c r="H209">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>311</v>
       </c>
@@ -7805,14 +6543,8 @@
       <c r="F210" s="2">
         <v>2</v>
       </c>
-      <c r="G210">
-        <v>999</v>
-      </c>
-      <c r="H210">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>370</v>
       </c>
@@ -7831,14 +6563,8 @@
       <c r="F211" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G211">
-        <v>999</v>
-      </c>
-      <c r="H211">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>549</v>
       </c>
@@ -7857,14 +6583,8 @@
       <c r="F212" s="2">
         <v>2</v>
       </c>
-      <c r="G212">
-        <v>999</v>
-      </c>
-      <c r="H212">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>611</v>
       </c>
@@ -7883,14 +6603,8 @@
       <c r="F213" s="2">
         <v>2</v>
       </c>
-      <c r="G213">
-        <v>999</v>
-      </c>
-      <c r="H213">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>570</v>
       </c>
@@ -7909,14 +6623,8 @@
       <c r="F214" s="2">
         <v>2</v>
       </c>
-      <c r="G214">
-        <v>999</v>
-      </c>
-      <c r="H214">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>577</v>
       </c>
@@ -7935,14 +6643,8 @@
       <c r="F215" s="2">
         <v>2</v>
       </c>
-      <c r="G215">
-        <v>999</v>
-      </c>
-      <c r="H215">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>311</v>
       </c>
@@ -7961,14 +6663,8 @@
       <c r="F216" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G216">
-        <v>999</v>
-      </c>
-      <c r="H216">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>370</v>
       </c>
@@ -7987,14 +6683,8 @@
       <c r="F217" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G217">
-        <v>999</v>
-      </c>
-      <c r="H217">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>311</v>
       </c>
@@ -8013,14 +6703,8 @@
       <c r="F218" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G218">
-        <v>999</v>
-      </c>
-      <c r="H218">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>370</v>
       </c>
@@ -8039,14 +6723,8 @@
       <c r="F219" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G219">
-        <v>999</v>
-      </c>
-      <c r="H219">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>311</v>
       </c>
@@ -8065,14 +6743,8 @@
       <c r="F220" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G220">
-        <v>999</v>
-      </c>
-      <c r="H220">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>370</v>
       </c>
@@ -8091,14 +6763,8 @@
       <c r="F221" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G221">
-        <v>999</v>
-      </c>
-      <c r="H221">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>311</v>
       </c>
@@ -8117,14 +6783,8 @@
       <c r="F222" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G222">
-        <v>999</v>
-      </c>
-      <c r="H222">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>370</v>
       </c>
@@ -8143,14 +6803,8 @@
       <c r="F223" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G223">
-        <v>999</v>
-      </c>
-      <c r="H223">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>370</v>
       </c>
@@ -8169,14 +6823,8 @@
       <c r="F224" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G224">
-        <v>999</v>
-      </c>
-      <c r="H224">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>370</v>
       </c>
@@ -8195,14 +6843,8 @@
       <c r="F225" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G225">
-        <v>999</v>
-      </c>
-      <c r="H225">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>370</v>
       </c>
@@ -8221,14 +6863,8 @@
       <c r="F226" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G226">
-        <v>999</v>
-      </c>
-      <c r="H226">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>370</v>
       </c>
@@ -8247,14 +6883,8 @@
       <c r="F227" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G227">
-        <v>999</v>
-      </c>
-      <c r="H227">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>370</v>
       </c>
@@ -8273,14 +6903,8 @@
       <c r="F228" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G228">
-        <v>999</v>
-      </c>
-      <c r="H228">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>370</v>
       </c>
@@ -8299,14 +6923,8 @@
       <c r="F229" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G229">
-        <v>999</v>
-      </c>
-      <c r="H229">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>370</v>
       </c>
@@ -8325,14 +6943,8 @@
       <c r="F230" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G230">
-        <v>999</v>
-      </c>
-      <c r="H230">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>370</v>
       </c>
@@ -8351,14 +6963,8 @@
       <c r="F231" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G231">
-        <v>999</v>
-      </c>
-      <c r="H231">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>311</v>
       </c>
@@ -8377,14 +6983,8 @@
       <c r="F232" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G232">
-        <v>999</v>
-      </c>
-      <c r="H232">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>370</v>
       </c>
@@ -8403,14 +7003,8 @@
       <c r="F233" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G233">
-        <v>999</v>
-      </c>
-      <c r="H233">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>311</v>
       </c>
@@ -8429,14 +7023,8 @@
       <c r="F234" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G234">
-        <v>999</v>
-      </c>
-      <c r="H234">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>370</v>
       </c>
@@ -8455,14 +7043,8 @@
       <c r="F235" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G235">
-        <v>999</v>
-      </c>
-      <c r="H235">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>311</v>
       </c>
@@ -8481,14 +7063,8 @@
       <c r="F236" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G236">
-        <v>999</v>
-      </c>
-      <c r="H236">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>370</v>
       </c>
@@ -8507,14 +7083,8 @@
       <c r="F237" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G237">
-        <v>999</v>
-      </c>
-      <c r="H237">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>311</v>
       </c>
@@ -8533,14 +7103,8 @@
       <c r="F238" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G238">
-        <v>999</v>
-      </c>
-      <c r="H238">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>370</v>
       </c>
@@ -8559,14 +7123,8 @@
       <c r="F239" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G239">
-        <v>999</v>
-      </c>
-      <c r="H239">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>370</v>
       </c>
@@ -8585,14 +7143,8 @@
       <c r="F240" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G240">
-        <v>999</v>
-      </c>
-      <c r="H240">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>370</v>
       </c>
@@ -8611,14 +7163,8 @@
       <c r="F241" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G241">
-        <v>999</v>
-      </c>
-      <c r="H241">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>370</v>
       </c>
@@ -8637,14 +7183,8 @@
       <c r="F242" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G242">
-        <v>999</v>
-      </c>
-      <c r="H242">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>370</v>
       </c>
@@ -8663,14 +7203,8 @@
       <c r="F243" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G243">
-        <v>999</v>
-      </c>
-      <c r="H243">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>370</v>
       </c>
@@ -8689,14 +7223,8 @@
       <c r="F244" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G244">
-        <v>999</v>
-      </c>
-      <c r="H244">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>370</v>
       </c>
@@ -8715,14 +7243,8 @@
       <c r="F245" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G245">
-        <v>999</v>
-      </c>
-      <c r="H245">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>370</v>
       </c>
@@ -8741,14 +7263,8 @@
       <c r="F246" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G246">
-        <v>999</v>
-      </c>
-      <c r="H246">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>370</v>
       </c>
@@ -8767,14 +7283,8 @@
       <c r="F247" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G247">
-        <v>999</v>
-      </c>
-      <c r="H247">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>370</v>
       </c>
@@ -8793,14 +7303,8 @@
       <c r="F248" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G248">
-        <v>999</v>
-      </c>
-      <c r="H248">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>370</v>
       </c>
@@ -8819,14 +7323,8 @@
       <c r="F249" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G249">
-        <v>999</v>
-      </c>
-      <c r="H249">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>370</v>
       </c>
@@ -8845,14 +7343,8 @@
       <c r="F250" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G250">
-        <v>999</v>
-      </c>
-      <c r="H250">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>370</v>
       </c>
@@ -8871,14 +7363,8 @@
       <c r="F251" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G251">
-        <v>999</v>
-      </c>
-      <c r="H251">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>370</v>
       </c>
@@ -8897,14 +7383,8 @@
       <c r="F252" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G252">
-        <v>999</v>
-      </c>
-      <c r="H252">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>370</v>
       </c>
@@ -8923,14 +7403,8 @@
       <c r="F253" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G253">
-        <v>999</v>
-      </c>
-      <c r="H253">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>370</v>
       </c>
@@ -8949,14 +7423,8 @@
       <c r="F254" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G254">
-        <v>999</v>
-      </c>
-      <c r="H254">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>370</v>
       </c>
@@ -8975,14 +7443,8 @@
       <c r="F255" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G255">
-        <v>999</v>
-      </c>
-      <c r="H255">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>611</v>
       </c>
@@ -9001,14 +7463,8 @@
       <c r="F256" s="2">
         <v>2</v>
       </c>
-      <c r="G256">
-        <v>999</v>
-      </c>
-      <c r="H256">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>476</v>
       </c>
@@ -9027,14 +7483,8 @@
       <c r="F257" s="2">
         <v>2</v>
       </c>
-      <c r="G257">
-        <v>999</v>
-      </c>
-      <c r="H257">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>476</v>
       </c>
@@ -9053,14 +7503,8 @@
       <c r="F258" s="2">
         <v>2</v>
       </c>
-      <c r="G258">
-        <v>999</v>
-      </c>
-      <c r="H258">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>476</v>
       </c>
@@ -9079,14 +7523,8 @@
       <c r="F259" s="2">
         <v>2</v>
       </c>
-      <c r="G259">
-        <v>999</v>
-      </c>
-      <c r="H259">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>476</v>
       </c>
@@ -9105,14 +7543,8 @@
       <c r="F260" s="2">
         <v>2</v>
       </c>
-      <c r="G260">
-        <v>999</v>
-      </c>
-      <c r="H260">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>476</v>
       </c>
@@ -9131,14 +7563,8 @@
       <c r="F261" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G261">
-        <v>999</v>
-      </c>
-      <c r="H261">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>476</v>
       </c>
@@ -9157,14 +7583,8 @@
       <c r="F262" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G262">
-        <v>999</v>
-      </c>
-      <c r="H262">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>476</v>
       </c>
@@ -9183,14 +7603,8 @@
       <c r="F263" s="2">
         <v>0</v>
       </c>
-      <c r="G263">
-        <v>999</v>
-      </c>
-      <c r="H263">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>453</v>
       </c>
@@ -9209,14 +7623,8 @@
       <c r="F264" s="2">
         <v>2</v>
       </c>
-      <c r="G264">
-        <v>999</v>
-      </c>
-      <c r="H264">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>476</v>
       </c>
@@ -9235,14 +7643,8 @@
       <c r="F265" s="2">
         <v>2</v>
       </c>
-      <c r="G265">
-        <v>999</v>
-      </c>
-      <c r="H265">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>453</v>
       </c>
@@ -9261,14 +7663,8 @@
       <c r="F266" s="2">
         <v>2</v>
       </c>
-      <c r="G266">
-        <v>999</v>
-      </c>
-      <c r="H266">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>476</v>
       </c>
@@ -9287,14 +7683,8 @@
       <c r="F267" s="2">
         <v>2</v>
       </c>
-      <c r="G267">
-        <v>999</v>
-      </c>
-      <c r="H267">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>453</v>
       </c>
@@ -9313,14 +7703,8 @@
       <c r="F268" s="2">
         <v>2</v>
       </c>
-      <c r="G268">
-        <v>999</v>
-      </c>
-      <c r="H268">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>476</v>
       </c>
@@ -9339,14 +7723,8 @@
       <c r="F269" s="2">
         <v>2</v>
       </c>
-      <c r="G269">
-        <v>999</v>
-      </c>
-      <c r="H269">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>453</v>
       </c>
@@ -9365,14 +7743,8 @@
       <c r="F270" s="2">
         <v>2</v>
       </c>
-      <c r="G270">
-        <v>999</v>
-      </c>
-      <c r="H270">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>476</v>
       </c>
@@ -9391,14 +7763,8 @@
       <c r="F271" s="2">
         <v>2</v>
       </c>
-      <c r="G271">
-        <v>999</v>
-      </c>
-      <c r="H271">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>453</v>
       </c>
@@ -9417,14 +7783,8 @@
       <c r="F272" s="2">
         <v>2</v>
       </c>
-      <c r="G272">
-        <v>999</v>
-      </c>
-      <c r="H272">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>476</v>
       </c>
@@ -9443,14 +7803,8 @@
       <c r="F273" s="2">
         <v>2</v>
       </c>
-      <c r="G273">
-        <v>999</v>
-      </c>
-      <c r="H273">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>453</v>
       </c>
@@ -9469,14 +7823,8 @@
       <c r="F274" s="2">
         <v>2</v>
       </c>
-      <c r="G274">
-        <v>999</v>
-      </c>
-      <c r="H274">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>476</v>
       </c>
@@ -9495,14 +7843,8 @@
       <c r="F275" s="2">
         <v>2</v>
       </c>
-      <c r="G275">
-        <v>999</v>
-      </c>
-      <c r="H275">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>453</v>
       </c>
@@ -9521,14 +7863,8 @@
       <c r="F276" s="2">
         <v>2</v>
       </c>
-      <c r="G276">
-        <v>999</v>
-      </c>
-      <c r="H276">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>453</v>
       </c>
@@ -9547,14 +7883,8 @@
       <c r="F277" s="2">
         <v>2</v>
       </c>
-      <c r="G277">
-        <v>999</v>
-      </c>
-      <c r="H277">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>453</v>
       </c>
@@ -9573,14 +7903,8 @@
       <c r="F278" s="2">
         <v>2</v>
       </c>
-      <c r="G278">
-        <v>999</v>
-      </c>
-      <c r="H278">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>453</v>
       </c>
@@ -9599,14 +7923,8 @@
       <c r="F279" s="2">
         <v>2</v>
       </c>
-      <c r="G279">
-        <v>999</v>
-      </c>
-      <c r="H279">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>453</v>
       </c>
@@ -9625,14 +7943,8 @@
       <c r="F280" s="2">
         <v>2</v>
       </c>
-      <c r="G280">
-        <v>999</v>
-      </c>
-      <c r="H280">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>453</v>
       </c>
@@ -9651,14 +7963,8 @@
       <c r="F281" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G281">
-        <v>999</v>
-      </c>
-      <c r="H281">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>453</v>
       </c>
@@ -9677,14 +7983,8 @@
       <c r="F282" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G282">
-        <v>999</v>
-      </c>
-      <c r="H282">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>98</v>
       </c>
@@ -9703,14 +8003,8 @@
       <c r="F283" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G283">
-        <v>999</v>
-      </c>
-      <c r="H283">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>6</v>
       </c>
@@ -9729,14 +8023,8 @@
       <c r="F284" s="2">
         <v>2</v>
       </c>
-      <c r="G284">
-        <v>999</v>
-      </c>
-      <c r="H284">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>493</v>
       </c>
@@ -9744,7 +8032,7 @@
         <v>11</v>
       </c>
       <c r="C285" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D285" t="s">
         <v>9</v>
@@ -9755,14 +8043,8 @@
       <c r="F285" s="2">
         <v>2</v>
       </c>
-      <c r="G285">
-        <v>999</v>
-      </c>
-      <c r="H285">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>28</v>
       </c>
@@ -9781,14 +8063,8 @@
       <c r="F286" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G286">
-        <v>999</v>
-      </c>
-      <c r="H286">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>98</v>
       </c>
@@ -9807,14 +8083,8 @@
       <c r="F287" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G287">
-        <v>999</v>
-      </c>
-      <c r="H287">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>137</v>
       </c>
@@ -9833,14 +8103,8 @@
       <c r="F288" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G288">
-        <v>999</v>
-      </c>
-      <c r="H288">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>137</v>
       </c>
@@ -9859,14 +8123,8 @@
       <c r="F289" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G289">
-        <v>999</v>
-      </c>
-      <c r="H289">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>137</v>
       </c>
@@ -9885,14 +8143,8 @@
       <c r="F290" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G290">
-        <v>999</v>
-      </c>
-      <c r="H290">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>137</v>
       </c>
@@ -9911,14 +8163,8 @@
       <c r="F291" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G291">
-        <v>999</v>
-      </c>
-      <c r="H291">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>137</v>
       </c>
@@ -9937,14 +8183,8 @@
       <c r="F292" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G292">
-        <v>999</v>
-      </c>
-      <c r="H292">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>137</v>
       </c>
@@ -9963,14 +8203,8 @@
       <c r="F293" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G293">
-        <v>999</v>
-      </c>
-      <c r="H293">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>137</v>
       </c>
@@ -9989,14 +8223,8 @@
       <c r="F294" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G294">
-        <v>999</v>
-      </c>
-      <c r="H294">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>28</v>
       </c>
@@ -10015,14 +8243,8 @@
       <c r="F295" s="2">
         <v>2</v>
       </c>
-      <c r="G295">
-        <v>999</v>
-      </c>
-      <c r="H295">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>98</v>
       </c>
@@ -10041,14 +8263,8 @@
       <c r="F296" s="2">
         <v>2</v>
       </c>
-      <c r="G296">
-        <v>999</v>
-      </c>
-      <c r="H296">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>485</v>
       </c>
@@ -10056,7 +8272,7 @@
         <v>47</v>
       </c>
       <c r="C297" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D297" t="s">
         <v>33</v>
@@ -10067,14 +8283,8 @@
       <c r="F297" s="2">
         <v>2</v>
       </c>
-      <c r="G297">
-        <v>999</v>
-      </c>
-      <c r="H297">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>493</v>
       </c>
@@ -10082,7 +8292,7 @@
         <v>47</v>
       </c>
       <c r="C298" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D298" t="s">
         <v>33</v>
@@ -10093,14 +8303,8 @@
       <c r="F298" s="2">
         <v>2</v>
       </c>
-      <c r="G298">
-        <v>999</v>
-      </c>
-      <c r="H298">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>500</v>
       </c>
@@ -10119,14 +8323,8 @@
       <c r="F299" s="2">
         <v>2</v>
       </c>
-      <c r="G299">
-        <v>999</v>
-      </c>
-      <c r="H299">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>98</v>
       </c>
@@ -10145,14 +8343,8 @@
       <c r="F300" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G300">
-        <v>999</v>
-      </c>
-      <c r="H300">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>28</v>
       </c>
@@ -10171,14 +8363,8 @@
       <c r="F301" s="2">
         <v>2</v>
       </c>
-      <c r="G301">
-        <v>999</v>
-      </c>
-      <c r="H301">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>98</v>
       </c>
@@ -10197,14 +8383,8 @@
       <c r="F302" s="2">
         <v>2</v>
       </c>
-      <c r="G302">
-        <v>999</v>
-      </c>
-      <c r="H302">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>137</v>
       </c>
@@ -10223,14 +8403,8 @@
       <c r="F303" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G303">
-        <v>999</v>
-      </c>
-      <c r="H303">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>485</v>
       </c>
@@ -10238,7 +8412,7 @@
         <v>49</v>
       </c>
       <c r="C304" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D304" t="s">
         <v>33</v>
@@ -10249,14 +8423,8 @@
       <c r="F304" s="2">
         <v>2</v>
       </c>
-      <c r="G304">
-        <v>999</v>
-      </c>
-      <c r="H304">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>493</v>
       </c>
@@ -10264,7 +8432,7 @@
         <v>49</v>
       </c>
       <c r="C305" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D305" t="s">
         <v>33</v>
@@ -10275,14 +8443,8 @@
       <c r="F305" s="2">
         <v>2</v>
       </c>
-      <c r="G305">
-        <v>999</v>
-      </c>
-      <c r="H305">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>500</v>
       </c>
@@ -10301,14 +8463,8 @@
       <c r="F306" s="2">
         <v>2</v>
       </c>
-      <c r="G306">
-        <v>999</v>
-      </c>
-      <c r="H306">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>28</v>
       </c>
@@ -10327,14 +8483,8 @@
       <c r="F307" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G307">
-        <v>999</v>
-      </c>
-      <c r="H307">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>98</v>
       </c>
@@ -10353,14 +8503,8 @@
       <c r="F308" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G308">
-        <v>999</v>
-      </c>
-      <c r="H308">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>485</v>
       </c>
@@ -10368,7 +8512,7 @@
         <v>51</v>
       </c>
       <c r="C309" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D309" t="s">
         <v>33</v>
@@ -10379,14 +8523,8 @@
       <c r="F309" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G309">
-        <v>999</v>
-      </c>
-      <c r="H309">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>493</v>
       </c>
@@ -10394,7 +8532,7 @@
         <v>51</v>
       </c>
       <c r="C310" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D310" t="s">
         <v>33</v>
@@ -10405,14 +8543,8 @@
       <c r="F310" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G310">
-        <v>999</v>
-      </c>
-      <c r="H310">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>500</v>
       </c>
@@ -10431,14 +8563,8 @@
       <c r="F311" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G311">
-        <v>999</v>
-      </c>
-      <c r="H311">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>137</v>
       </c>
@@ -10457,14 +8583,8 @@
       <c r="F312" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G312">
-        <v>999</v>
-      </c>
-      <c r="H312">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>28</v>
       </c>
@@ -10483,14 +8603,8 @@
       <c r="F313" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G313">
-        <v>999</v>
-      </c>
-      <c r="H313">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>98</v>
       </c>
@@ -10509,14 +8623,8 @@
       <c r="F314" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G314">
-        <v>999</v>
-      </c>
-      <c r="H314">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>485</v>
       </c>
@@ -10524,7 +8632,7 @@
         <v>53</v>
       </c>
       <c r="C315" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D315" t="s">
         <v>33</v>
@@ -10535,14 +8643,8 @@
       <c r="F315" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G315">
-        <v>999</v>
-      </c>
-      <c r="H315">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>493</v>
       </c>
@@ -10550,7 +8652,7 @@
         <v>53</v>
       </c>
       <c r="C316" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D316" t="s">
         <v>33</v>
@@ -10561,14 +8663,8 @@
       <c r="F316" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G316">
-        <v>999</v>
-      </c>
-      <c r="H316">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>500</v>
       </c>
@@ -10587,14 +8683,8 @@
       <c r="F317" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G317">
-        <v>999</v>
-      </c>
-      <c r="H317">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>28</v>
       </c>
@@ -10613,14 +8703,8 @@
       <c r="F318" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G318">
-        <v>999</v>
-      </c>
-      <c r="H318">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>98</v>
       </c>
@@ -10639,14 +8723,8 @@
       <c r="F319" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G319">
-        <v>999</v>
-      </c>
-      <c r="H319">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>485</v>
       </c>
@@ -10654,7 +8732,7 @@
         <v>55</v>
       </c>
       <c r="C320" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D320" t="s">
         <v>41</v>
@@ -10665,14 +8743,8 @@
       <c r="F320" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G320">
-        <v>999</v>
-      </c>
-      <c r="H320">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>493</v>
       </c>
@@ -10680,7 +8752,7 @@
         <v>55</v>
       </c>
       <c r="C321" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D321" t="s">
         <v>41</v>
@@ -10691,14 +8763,8 @@
       <c r="F321" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G321">
-        <v>999</v>
-      </c>
-      <c r="H321">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>500</v>
       </c>
@@ -10717,14 +8783,8 @@
       <c r="F322" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G322">
-        <v>999</v>
-      </c>
-      <c r="H322">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>485</v>
       </c>
@@ -10732,7 +8792,7 @@
         <v>486</v>
       </c>
       <c r="C323" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D323" t="s">
         <v>41</v>
@@ -10743,14 +8803,8 @@
       <c r="F323" s="2">
         <v>2</v>
       </c>
-      <c r="G323">
-        <v>999</v>
-      </c>
-      <c r="H323">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>493</v>
       </c>
@@ -10758,7 +8812,7 @@
         <v>486</v>
       </c>
       <c r="C324" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D324" t="s">
         <v>41</v>
@@ -10769,14 +8823,8 @@
       <c r="F324" s="2">
         <v>2</v>
       </c>
-      <c r="G324">
-        <v>999</v>
-      </c>
-      <c r="H324">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>28</v>
       </c>
@@ -10795,14 +8843,8 @@
       <c r="F325" s="2">
         <v>2</v>
       </c>
-      <c r="G325">
-        <v>999</v>
-      </c>
-      <c r="H325">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>98</v>
       </c>
@@ -10821,14 +8863,8 @@
       <c r="F326" s="2">
         <v>2</v>
       </c>
-      <c r="G326">
-        <v>999</v>
-      </c>
-      <c r="H326">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>137</v>
       </c>
@@ -10847,14 +8883,8 @@
       <c r="F327" s="2">
         <v>2</v>
       </c>
-      <c r="G327">
-        <v>999</v>
-      </c>
-      <c r="H327">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>485</v>
       </c>
@@ -10862,7 +8892,7 @@
         <v>57</v>
       </c>
       <c r="C328" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D328" t="s">
         <v>41</v>
@@ -10873,14 +8903,8 @@
       <c r="F328" s="2">
         <v>2</v>
       </c>
-      <c r="G328">
-        <v>999</v>
-      </c>
-      <c r="H328">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>493</v>
       </c>
@@ -10888,7 +8912,7 @@
         <v>57</v>
       </c>
       <c r="C329" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D329" t="s">
         <v>41</v>
@@ -10899,14 +8923,8 @@
       <c r="F329" s="2">
         <v>2</v>
       </c>
-      <c r="G329">
-        <v>999</v>
-      </c>
-      <c r="H329">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>500</v>
       </c>
@@ -10925,14 +8943,8 @@
       <c r="F330" s="2">
         <v>2</v>
       </c>
-      <c r="G330">
-        <v>999</v>
-      </c>
-      <c r="H330">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>28</v>
       </c>
@@ -10951,14 +8963,8 @@
       <c r="F331" s="2">
         <v>2</v>
       </c>
-      <c r="G331">
-        <v>999</v>
-      </c>
-      <c r="H331">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>98</v>
       </c>
@@ -10977,14 +8983,8 @@
       <c r="F332" s="2">
         <v>2</v>
       </c>
-      <c r="G332">
-        <v>999</v>
-      </c>
-      <c r="H332">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>485</v>
       </c>
@@ -10992,7 +8992,7 @@
         <v>59</v>
       </c>
       <c r="C333" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D333" t="s">
         <v>41</v>
@@ -11003,14 +9003,8 @@
       <c r="F333" s="2">
         <v>2</v>
       </c>
-      <c r="G333">
-        <v>999</v>
-      </c>
-      <c r="H333">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>493</v>
       </c>
@@ -11018,7 +9012,7 @@
         <v>59</v>
       </c>
       <c r="C334" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D334" t="s">
         <v>41</v>
@@ -11029,14 +9023,8 @@
       <c r="F334" s="2">
         <v>2</v>
       </c>
-      <c r="G334">
-        <v>999</v>
-      </c>
-      <c r="H334">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>500</v>
       </c>
@@ -11055,14 +9043,8 @@
       <c r="F335" s="2">
         <v>2</v>
       </c>
-      <c r="G335">
-        <v>999</v>
-      </c>
-      <c r="H335">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>28</v>
       </c>
@@ -11081,14 +9063,8 @@
       <c r="F336" s="2">
         <v>2</v>
       </c>
-      <c r="G336">
-        <v>999</v>
-      </c>
-      <c r="H336">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>98</v>
       </c>
@@ -11107,14 +9083,8 @@
       <c r="F337" s="2">
         <v>2</v>
       </c>
-      <c r="G337">
-        <v>999</v>
-      </c>
-      <c r="H337">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>137</v>
       </c>
@@ -11133,14 +9103,8 @@
       <c r="F338" s="2">
         <v>2</v>
       </c>
-      <c r="G338">
-        <v>999</v>
-      </c>
-      <c r="H338">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>485</v>
       </c>
@@ -11148,7 +9112,7 @@
         <v>61</v>
       </c>
       <c r="C339" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D339" t="s">
         <v>41</v>
@@ -11159,14 +9123,8 @@
       <c r="F339" s="2">
         <v>2</v>
       </c>
-      <c r="G339">
-        <v>999</v>
-      </c>
-      <c r="H339">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>493</v>
       </c>
@@ -11174,7 +9132,7 @@
         <v>61</v>
       </c>
       <c r="C340" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D340" t="s">
         <v>41</v>
@@ -11185,14 +9143,8 @@
       <c r="F340" s="2">
         <v>2</v>
       </c>
-      <c r="G340">
-        <v>999</v>
-      </c>
-      <c r="H340">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>500</v>
       </c>
@@ -11211,14 +9163,8 @@
       <c r="F341" s="2">
         <v>2</v>
       </c>
-      <c r="G341">
-        <v>999</v>
-      </c>
-      <c r="H341">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>28</v>
       </c>
@@ -11237,14 +9183,8 @@
       <c r="F342" s="2">
         <v>2</v>
       </c>
-      <c r="G342">
-        <v>999</v>
-      </c>
-      <c r="H342">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>98</v>
       </c>
@@ -11263,14 +9203,8 @@
       <c r="F343" s="2">
         <v>2</v>
       </c>
-      <c r="G343">
-        <v>999</v>
-      </c>
-      <c r="H343">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>485</v>
       </c>
@@ -11278,7 +9212,7 @@
         <v>63</v>
       </c>
       <c r="C344" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D344" t="s">
         <v>41</v>
@@ -11289,14 +9223,8 @@
       <c r="F344" s="2">
         <v>2</v>
       </c>
-      <c r="G344">
-        <v>999</v>
-      </c>
-      <c r="H344">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>493</v>
       </c>
@@ -11304,7 +9232,7 @@
         <v>63</v>
       </c>
       <c r="C345" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D345" t="s">
         <v>41</v>
@@ -11315,14 +9243,8 @@
       <c r="F345" s="2">
         <v>2</v>
       </c>
-      <c r="G345">
-        <v>999</v>
-      </c>
-      <c r="H345">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>500</v>
       </c>
@@ -11341,14 +9263,8 @@
       <c r="F346" s="2">
         <v>2</v>
       </c>
-      <c r="G346">
-        <v>999</v>
-      </c>
-      <c r="H346">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>28</v>
       </c>
@@ -11367,14 +9283,8 @@
       <c r="F347" s="2">
         <v>2</v>
       </c>
-      <c r="G347">
-        <v>999</v>
-      </c>
-      <c r="H347">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>98</v>
       </c>
@@ -11393,14 +9303,8 @@
       <c r="F348" s="2">
         <v>2</v>
       </c>
-      <c r="G348">
-        <v>999</v>
-      </c>
-      <c r="H348">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>485</v>
       </c>
@@ -11408,7 +9312,7 @@
         <v>65</v>
       </c>
       <c r="C349" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D349" t="s">
         <v>41</v>
@@ -11419,14 +9323,8 @@
       <c r="F349" s="2">
         <v>2</v>
       </c>
-      <c r="G349">
-        <v>999</v>
-      </c>
-      <c r="H349">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>493</v>
       </c>
@@ -11434,7 +9332,7 @@
         <v>65</v>
       </c>
       <c r="C350" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D350" t="s">
         <v>41</v>
@@ -11445,14 +9343,8 @@
       <c r="F350" s="2">
         <v>2</v>
       </c>
-      <c r="G350">
-        <v>999</v>
-      </c>
-      <c r="H350">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>500</v>
       </c>
@@ -11471,14 +9363,8 @@
       <c r="F351" s="2">
         <v>2</v>
       </c>
-      <c r="G351">
-        <v>999</v>
-      </c>
-      <c r="H351">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>137</v>
       </c>
@@ -11497,14 +9383,8 @@
       <c r="F352" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G352">
-        <v>999</v>
-      </c>
-      <c r="H352">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>137</v>
       </c>
@@ -11523,14 +9403,8 @@
       <c r="F353" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G353">
-        <v>999</v>
-      </c>
-      <c r="H353">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>137</v>
       </c>
@@ -11549,14 +9423,8 @@
       <c r="F354" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G354">
-        <v>999</v>
-      </c>
-      <c r="H354">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>137</v>
       </c>
@@ -11575,14 +9443,8 @@
       <c r="F355" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G355">
-        <v>999</v>
-      </c>
-      <c r="H355">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>137</v>
       </c>
@@ -11601,14 +9463,8 @@
       <c r="F356" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G356">
-        <v>999</v>
-      </c>
-      <c r="H356">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>137</v>
       </c>
@@ -11627,14 +9483,8 @@
       <c r="F357" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G357">
-        <v>999</v>
-      </c>
-      <c r="H357">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>137</v>
       </c>
@@ -11653,14 +9503,8 @@
       <c r="F358" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G358">
-        <v>999</v>
-      </c>
-      <c r="H358">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>28</v>
       </c>
@@ -11679,14 +9523,8 @@
       <c r="F359" s="2">
         <v>2</v>
       </c>
-      <c r="G359">
-        <v>999</v>
-      </c>
-      <c r="H359">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>98</v>
       </c>
@@ -11705,14 +9543,8 @@
       <c r="F360" s="2">
         <v>2</v>
       </c>
-      <c r="G360">
-        <v>999</v>
-      </c>
-      <c r="H360">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>485</v>
       </c>
@@ -11720,7 +9552,7 @@
         <v>67</v>
       </c>
       <c r="C361" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D361" t="s">
         <v>41</v>
@@ -11731,14 +9563,8 @@
       <c r="F361" s="2">
         <v>2</v>
       </c>
-      <c r="G361">
-        <v>999</v>
-      </c>
-      <c r="H361">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>493</v>
       </c>
@@ -11746,7 +9572,7 @@
         <v>67</v>
       </c>
       <c r="C362" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D362" t="s">
         <v>41</v>
@@ -11757,14 +9583,8 @@
       <c r="F362" s="2">
         <v>2</v>
       </c>
-      <c r="G362">
-        <v>999</v>
-      </c>
-      <c r="H362">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>500</v>
       </c>
@@ -11783,14 +9603,8 @@
       <c r="F363" s="2">
         <v>2</v>
       </c>
-      <c r="G363">
-        <v>999</v>
-      </c>
-      <c r="H363">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>28</v>
       </c>
@@ -11809,14 +9623,8 @@
       <c r="F364" s="2">
         <v>2</v>
       </c>
-      <c r="G364">
-        <v>999</v>
-      </c>
-      <c r="H364">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>98</v>
       </c>
@@ -11835,14 +9643,8 @@
       <c r="F365" s="2">
         <v>2</v>
       </c>
-      <c r="G365">
-        <v>999</v>
-      </c>
-      <c r="H365">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>137</v>
       </c>
@@ -11861,14 +9663,8 @@
       <c r="F366" s="2">
         <v>2</v>
       </c>
-      <c r="G366">
-        <v>999</v>
-      </c>
-      <c r="H366">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>485</v>
       </c>
@@ -11876,7 +9672,7 @@
         <v>69</v>
       </c>
       <c r="C367" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D367" t="s">
         <v>41</v>
@@ -11887,14 +9683,8 @@
       <c r="F367" s="2">
         <v>2</v>
       </c>
-      <c r="G367">
-        <v>999</v>
-      </c>
-      <c r="H367">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>493</v>
       </c>
@@ -11902,7 +9692,7 @@
         <v>69</v>
       </c>
       <c r="C368" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D368" t="s">
         <v>41</v>
@@ -11913,14 +9703,8 @@
       <c r="F368" s="2">
         <v>2</v>
       </c>
-      <c r="G368">
-        <v>999</v>
-      </c>
-      <c r="H368">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>500</v>
       </c>
@@ -11939,14 +9723,8 @@
       <c r="F369" s="2">
         <v>2</v>
       </c>
-      <c r="G369">
-        <v>999</v>
-      </c>
-      <c r="H369">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>28</v>
       </c>
@@ -11965,14 +9743,8 @@
       <c r="F370" s="2">
         <v>2</v>
       </c>
-      <c r="G370">
-        <v>999</v>
-      </c>
-      <c r="H370">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>98</v>
       </c>
@@ -11991,14 +9763,8 @@
       <c r="F371" s="2">
         <v>2</v>
       </c>
-      <c r="G371">
-        <v>999</v>
-      </c>
-      <c r="H371">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>137</v>
       </c>
@@ -12017,14 +9783,8 @@
       <c r="F372" s="2">
         <v>2</v>
       </c>
-      <c r="G372">
-        <v>999</v>
-      </c>
-      <c r="H372">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>485</v>
       </c>
@@ -12032,7 +9792,7 @@
         <v>71</v>
       </c>
       <c r="C373" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D373" t="s">
         <v>41</v>
@@ -12043,14 +9803,8 @@
       <c r="F373" s="2">
         <v>2</v>
       </c>
-      <c r="G373">
-        <v>999</v>
-      </c>
-      <c r="H373">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>493</v>
       </c>
@@ -12058,7 +9812,7 @@
         <v>71</v>
       </c>
       <c r="C374" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D374" t="s">
         <v>41</v>
@@ -12069,14 +9823,8 @@
       <c r="F374" s="2">
         <v>2</v>
       </c>
-      <c r="G374">
-        <v>999</v>
-      </c>
-      <c r="H374">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>500</v>
       </c>
@@ -12095,14 +9843,8 @@
       <c r="F375" s="2">
         <v>2</v>
       </c>
-      <c r="G375">
-        <v>999</v>
-      </c>
-      <c r="H375">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>28</v>
       </c>
@@ -12121,14 +9863,8 @@
       <c r="F376" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G376">
-        <v>999</v>
-      </c>
-      <c r="H376">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>98</v>
       </c>
@@ -12147,14 +9883,8 @@
       <c r="F377" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G377">
-        <v>999</v>
-      </c>
-      <c r="H377">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>485</v>
       </c>
@@ -12162,7 +9892,7 @@
         <v>73</v>
       </c>
       <c r="C378" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D378" t="s">
         <v>41</v>
@@ -12173,14 +9903,8 @@
       <c r="F378" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G378">
-        <v>999</v>
-      </c>
-      <c r="H378">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>493</v>
       </c>
@@ -12188,7 +9912,7 @@
         <v>73</v>
       </c>
       <c r="C379" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D379" t="s">
         <v>41</v>
@@ -12199,14 +9923,8 @@
       <c r="F379" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G379">
-        <v>999</v>
-      </c>
-      <c r="H379">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>500</v>
       </c>
@@ -12225,14 +9943,8 @@
       <c r="F380" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G380">
-        <v>999</v>
-      </c>
-      <c r="H380">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>500</v>
       </c>
@@ -12251,14 +9963,8 @@
       <c r="F381" s="2">
         <v>0</v>
       </c>
-      <c r="G381">
-        <v>999</v>
-      </c>
-      <c r="H381">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>500</v>
       </c>
@@ -12277,14 +9983,8 @@
       <c r="F382" s="2">
         <v>4</v>
       </c>
-      <c r="G382">
-        <v>999</v>
-      </c>
-      <c r="H382">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>500</v>
       </c>
@@ -12303,14 +10003,8 @@
       <c r="F383" s="2">
         <v>2</v>
       </c>
-      <c r="G383">
-        <v>999</v>
-      </c>
-      <c r="H383">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>500</v>
       </c>
@@ -12329,14 +10023,8 @@
       <c r="F384" s="2">
         <v>2</v>
       </c>
-      <c r="G384">
-        <v>999</v>
-      </c>
-      <c r="H384">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>500</v>
       </c>
@@ -12355,14 +10043,8 @@
       <c r="F385" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G385">
-        <v>999</v>
-      </c>
-      <c r="H385">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>500</v>
       </c>
@@ -12381,14 +10063,8 @@
       <c r="F386" s="2">
         <v>2</v>
       </c>
-      <c r="G386">
-        <v>999</v>
-      </c>
-      <c r="H386">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>500</v>
       </c>
@@ -12407,14 +10083,8 @@
       <c r="F387" s="2">
         <v>2</v>
       </c>
-      <c r="G387">
-        <v>999</v>
-      </c>
-      <c r="H387">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>500</v>
       </c>
@@ -12433,14 +10103,8 @@
       <c r="F388" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G388">
-        <v>999</v>
-      </c>
-      <c r="H388">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>137</v>
       </c>
@@ -12459,14 +10123,8 @@
       <c r="F389" s="2">
         <v>2</v>
       </c>
-      <c r="G389">
-        <v>999</v>
-      </c>
-      <c r="H389">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>137</v>
       </c>
@@ -12485,14 +10143,8 @@
       <c r="F390" s="2">
         <v>2</v>
       </c>
-      <c r="G390">
-        <v>999</v>
-      </c>
-      <c r="H390">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>28</v>
       </c>
@@ -12511,14 +10163,8 @@
       <c r="F391" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G391">
-        <v>999</v>
-      </c>
-      <c r="H391">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>98</v>
       </c>
@@ -12537,14 +10183,8 @@
       <c r="F392" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G392">
-        <v>999</v>
-      </c>
-      <c r="H392">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>500</v>
       </c>
@@ -12563,14 +10203,8 @@
       <c r="F393" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G393">
-        <v>999</v>
-      </c>
-      <c r="H393">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>98</v>
       </c>
@@ -12589,14 +10223,8 @@
       <c r="F394" s="2">
         <v>0</v>
       </c>
-      <c r="G394">
-        <v>999</v>
-      </c>
-      <c r="H394">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>98</v>
       </c>
@@ -12615,14 +10243,8 @@
       <c r="F395" s="2">
         <v>0</v>
       </c>
-      <c r="G395">
-        <v>999</v>
-      </c>
-      <c r="H395">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>98</v>
       </c>
@@ -12641,14 +10263,8 @@
       <c r="F396" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G396">
-        <v>999</v>
-      </c>
-      <c r="H396">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>28</v>
       </c>
@@ -12667,14 +10283,8 @@
       <c r="F397" s="2">
         <v>0</v>
       </c>
-      <c r="G397">
-        <v>999</v>
-      </c>
-      <c r="H397">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>98</v>
       </c>
@@ -12693,14 +10303,8 @@
       <c r="F398" s="2">
         <v>0</v>
       </c>
-      <c r="G398">
-        <v>999</v>
-      </c>
-      <c r="H398">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>28</v>
       </c>
@@ -12719,14 +10323,8 @@
       <c r="F399" s="2">
         <v>0</v>
       </c>
-      <c r="G399">
-        <v>999</v>
-      </c>
-      <c r="H399">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>98</v>
       </c>
@@ -12745,14 +10343,8 @@
       <c r="F400" s="2">
         <v>0</v>
       </c>
-      <c r="G400">
-        <v>999</v>
-      </c>
-      <c r="H400">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>98</v>
       </c>
@@ -12771,14 +10363,8 @@
       <c r="F401" s="2">
         <v>0</v>
       </c>
-      <c r="G401">
-        <v>999</v>
-      </c>
-      <c r="H401">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>500</v>
       </c>
@@ -12797,14 +10383,8 @@
       <c r="F402" s="2">
         <v>0</v>
       </c>
-      <c r="G402">
-        <v>999</v>
-      </c>
-      <c r="H402">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>98</v>
       </c>
@@ -12823,14 +10403,8 @@
       <c r="F403" s="2">
         <v>0</v>
       </c>
-      <c r="G403">
-        <v>999</v>
-      </c>
-      <c r="H403">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>500</v>
       </c>
@@ -12849,14 +10423,8 @@
       <c r="F404" s="2">
         <v>0</v>
       </c>
-      <c r="G404">
-        <v>999</v>
-      </c>
-      <c r="H404">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>98</v>
       </c>
@@ -12875,14 +10443,8 @@
       <c r="F405" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G405">
-        <v>999</v>
-      </c>
-      <c r="H405">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>6</v>
       </c>
@@ -12901,14 +10463,8 @@
       <c r="F406" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G406">
-        <v>999</v>
-      </c>
-      <c r="H406">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>493</v>
       </c>
@@ -12916,7 +10472,7 @@
         <v>13</v>
       </c>
       <c r="C407" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D407" t="s">
         <v>14</v>
@@ -12927,14 +10483,8 @@
       <c r="F407" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G407">
-        <v>999</v>
-      </c>
-      <c r="H407">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>6</v>
       </c>
@@ -12948,19 +10498,13 @@
         <v>9</v>
       </c>
       <c r="E408" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F408" s="2">
         <v>2</v>
       </c>
-      <c r="G408">
-        <v>999</v>
-      </c>
-      <c r="H408">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>137</v>
       </c>
@@ -12974,19 +10518,13 @@
         <v>9</v>
       </c>
       <c r="E409" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F409" s="2">
         <v>2</v>
       </c>
-      <c r="G409">
-        <v>999</v>
-      </c>
-      <c r="H409">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>493</v>
       </c>
@@ -12994,25 +10532,19 @@
         <v>16</v>
       </c>
       <c r="C410" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D410" t="s">
         <v>9</v>
       </c>
       <c r="E410" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F410" s="2">
         <v>2</v>
       </c>
-      <c r="G410">
-        <v>999</v>
-      </c>
-      <c r="H410">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>500</v>
       </c>
@@ -13031,14 +10563,8 @@
       <c r="F411" s="2">
         <v>2</v>
       </c>
-      <c r="G411">
-        <v>999</v>
-      </c>
-      <c r="H411">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>28</v>
       </c>
@@ -13057,14 +10583,8 @@
       <c r="F412" s="2">
         <v>2</v>
       </c>
-      <c r="G412">
-        <v>999</v>
-      </c>
-      <c r="H412">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>98</v>
       </c>
@@ -13083,14 +10603,8 @@
       <c r="F413" s="2">
         <v>2</v>
       </c>
-      <c r="G413">
-        <v>999</v>
-      </c>
-      <c r="H413">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>500</v>
       </c>
@@ -13109,14 +10623,8 @@
       <c r="F414" s="2">
         <v>2</v>
       </c>
-      <c r="G414">
-        <v>999</v>
-      </c>
-      <c r="H414">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>28</v>
       </c>
@@ -13135,14 +10643,8 @@
       <c r="F415" s="2">
         <v>2</v>
       </c>
-      <c r="G415">
-        <v>999</v>
-      </c>
-      <c r="H415">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>98</v>
       </c>
@@ -13161,14 +10663,8 @@
       <c r="F416" s="2">
         <v>2</v>
       </c>
-      <c r="G416">
-        <v>999</v>
-      </c>
-      <c r="H416">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>500</v>
       </c>
@@ -13187,14 +10683,8 @@
       <c r="F417" s="2">
         <v>2</v>
       </c>
-      <c r="G417">
-        <v>999</v>
-      </c>
-      <c r="H417">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>98</v>
       </c>
@@ -13213,14 +10703,8 @@
       <c r="F418" s="2">
         <v>2</v>
       </c>
-      <c r="G418">
-        <v>999</v>
-      </c>
-      <c r="H418">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>28</v>
       </c>
@@ -13239,14 +10723,8 @@
       <c r="F419" s="2">
         <v>2</v>
       </c>
-      <c r="G419">
-        <v>999</v>
-      </c>
-      <c r="H419">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>98</v>
       </c>
@@ -13265,14 +10743,8 @@
       <c r="F420" s="2">
         <v>2</v>
       </c>
-      <c r="G420">
-        <v>999</v>
-      </c>
-      <c r="H420">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>28</v>
       </c>
@@ -13291,14 +10763,8 @@
       <c r="F421" s="2">
         <v>2</v>
       </c>
-      <c r="G421">
-        <v>999</v>
-      </c>
-      <c r="H421">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>98</v>
       </c>
@@ -13317,14 +10783,8 @@
       <c r="F422" s="2">
         <v>2</v>
       </c>
-      <c r="G422">
-        <v>999</v>
-      </c>
-      <c r="H422">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>98</v>
       </c>
@@ -13343,14 +10803,8 @@
       <c r="F423" s="2">
         <v>2</v>
       </c>
-      <c r="G423">
-        <v>999</v>
-      </c>
-      <c r="H423">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>137</v>
       </c>
@@ -13369,14 +10823,8 @@
       <c r="F424" s="2">
         <v>2</v>
       </c>
-      <c r="G424">
-        <v>999</v>
-      </c>
-      <c r="H424">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>137</v>
       </c>
@@ -13395,14 +10843,8 @@
       <c r="F425" s="2">
         <v>2</v>
       </c>
-      <c r="G425">
-        <v>999</v>
-      </c>
-      <c r="H425">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>137</v>
       </c>
@@ -13421,14 +10863,8 @@
       <c r="F426" s="2">
         <v>2</v>
       </c>
-      <c r="G426">
-        <v>999</v>
-      </c>
-      <c r="H426">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>137</v>
       </c>
@@ -13447,14 +10883,8 @@
       <c r="F427" s="2">
         <v>2</v>
       </c>
-      <c r="G427">
-        <v>999</v>
-      </c>
-      <c r="H427">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>6</v>
       </c>
@@ -13473,14 +10903,8 @@
       <c r="F428" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G428">
-        <v>999</v>
-      </c>
-      <c r="H428">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>28</v>
       </c>
@@ -13499,14 +10923,8 @@
       <c r="F429" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G429">
-        <v>999</v>
-      </c>
-      <c r="H429">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>98</v>
       </c>
@@ -13525,14 +10943,8 @@
       <c r="F430" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G430">
-        <v>999</v>
-      </c>
-      <c r="H430">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>493</v>
       </c>
@@ -13540,7 +10952,7 @@
         <v>17</v>
       </c>
       <c r="C431" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D431" t="s">
         <v>9</v>
@@ -13551,14 +10963,8 @@
       <c r="F431" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G431">
-        <v>999</v>
-      </c>
-      <c r="H431">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>500</v>
       </c>
@@ -13577,14 +10983,8 @@
       <c r="F432" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G432">
-        <v>999</v>
-      </c>
-      <c r="H432">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>6</v>
       </c>
@@ -13603,14 +11003,8 @@
       <c r="F433" s="2">
         <v>2</v>
       </c>
-      <c r="G433">
-        <v>999</v>
-      </c>
-      <c r="H433">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>28</v>
       </c>
@@ -13629,14 +11023,8 @@
       <c r="F434" s="2">
         <v>2</v>
       </c>
-      <c r="G434">
-        <v>999</v>
-      </c>
-      <c r="H434">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>98</v>
       </c>
@@ -13655,14 +11043,8 @@
       <c r="F435" s="2">
         <v>2</v>
       </c>
-      <c r="G435">
-        <v>999</v>
-      </c>
-      <c r="H435">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>493</v>
       </c>
@@ -13670,7 +11052,7 @@
         <v>20</v>
       </c>
       <c r="C436" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D436" t="s">
         <v>9</v>
@@ -13681,14 +11063,8 @@
       <c r="F436" s="2">
         <v>2</v>
       </c>
-      <c r="G436">
-        <v>999</v>
-      </c>
-      <c r="H436">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>500</v>
       </c>
@@ -13707,14 +11083,8 @@
       <c r="F437" s="2">
         <v>2</v>
       </c>
-      <c r="G437">
-        <v>999</v>
-      </c>
-      <c r="H437">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>500</v>
       </c>
@@ -13733,14 +11103,8 @@
       <c r="F438" s="2">
         <v>2</v>
       </c>
-      <c r="G438">
-        <v>999</v>
-      </c>
-      <c r="H438">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>500</v>
       </c>
@@ -13759,14 +11123,8 @@
       <c r="F439" s="2">
         <v>2</v>
       </c>
-      <c r="G439">
-        <v>999</v>
-      </c>
-      <c r="H439">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>493</v>
       </c>
@@ -13774,7 +11132,7 @@
         <v>495</v>
       </c>
       <c r="C440" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D440" t="s">
         <v>9</v>
@@ -13785,14 +11143,8 @@
       <c r="F440" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G440">
-        <v>999</v>
-      </c>
-      <c r="H440">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>6</v>
       </c>
@@ -13811,14 +11163,8 @@
       <c r="F441" s="2">
         <v>2</v>
       </c>
-      <c r="G441">
-        <v>999</v>
-      </c>
-      <c r="H441">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>28</v>
       </c>
@@ -13837,14 +11183,8 @@
       <c r="F442" s="2">
         <v>2</v>
       </c>
-      <c r="G442">
-        <v>999</v>
-      </c>
-      <c r="H442">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>98</v>
       </c>
@@ -13863,14 +11203,8 @@
       <c r="F443" s="2">
         <v>2</v>
       </c>
-      <c r="G443">
-        <v>999</v>
-      </c>
-      <c r="H443">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>137</v>
       </c>
@@ -13889,14 +11223,8 @@
       <c r="F444" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G444">
-        <v>999</v>
-      </c>
-      <c r="H444">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>493</v>
       </c>
@@ -13904,7 +11232,7 @@
         <v>22</v>
       </c>
       <c r="C445" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D445" t="s">
         <v>9</v>
@@ -13915,14 +11243,8 @@
       <c r="F445" s="2">
         <v>2</v>
       </c>
-      <c r="G445">
-        <v>999</v>
-      </c>
-      <c r="H445">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>500</v>
       </c>
@@ -13941,14 +11263,8 @@
       <c r="F446" s="2">
         <v>2</v>
       </c>
-      <c r="G446">
-        <v>999</v>
-      </c>
-      <c r="H446">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>6</v>
       </c>
@@ -13967,14 +11283,8 @@
       <c r="F447" s="2">
         <v>2</v>
       </c>
-      <c r="G447">
-        <v>999</v>
-      </c>
-      <c r="H447">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>28</v>
       </c>
@@ -13993,14 +11303,8 @@
       <c r="F448" s="2">
         <v>2</v>
       </c>
-      <c r="G448">
-        <v>999</v>
-      </c>
-      <c r="H448">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>98</v>
       </c>
@@ -14019,14 +11323,8 @@
       <c r="F449" s="2">
         <v>2</v>
       </c>
-      <c r="G449">
-        <v>999</v>
-      </c>
-      <c r="H449">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>137</v>
       </c>
@@ -14045,14 +11343,8 @@
       <c r="F450" s="2">
         <v>2</v>
       </c>
-      <c r="G450">
-        <v>999</v>
-      </c>
-      <c r="H450">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>493</v>
       </c>
@@ -14060,7 +11352,7 @@
         <v>24</v>
       </c>
       <c r="C451" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D451" t="s">
         <v>9</v>
@@ -14071,14 +11363,8 @@
       <c r="F451" s="2">
         <v>2</v>
       </c>
-      <c r="G451">
-        <v>999</v>
-      </c>
-      <c r="H451">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>500</v>
       </c>
@@ -14097,14 +11383,8 @@
       <c r="F452" s="2">
         <v>2</v>
       </c>
-      <c r="G452">
-        <v>999</v>
-      </c>
-      <c r="H452">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>6</v>
       </c>
@@ -14123,14 +11403,8 @@
       <c r="F453" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G453">
-        <v>999</v>
-      </c>
-      <c r="H453">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>28</v>
       </c>
@@ -14149,14 +11423,8 @@
       <c r="F454" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G454">
-        <v>999</v>
-      </c>
-      <c r="H454">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>98</v>
       </c>
@@ -14175,14 +11443,8 @@
       <c r="F455" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G455">
-        <v>999</v>
-      </c>
-      <c r="H455">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>493</v>
       </c>
@@ -14190,7 +11452,7 @@
         <v>26</v>
       </c>
       <c r="C456" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D456" t="s">
         <v>9</v>
@@ -14201,14 +11463,8 @@
       <c r="F456" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G456">
-        <v>999</v>
-      </c>
-      <c r="H456">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>485</v>
       </c>
@@ -14216,7 +11472,7 @@
         <v>488</v>
       </c>
       <c r="C457" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D457" t="s">
         <v>41</v>
@@ -14227,14 +11483,8 @@
       <c r="F457" s="2">
         <v>2</v>
       </c>
-      <c r="G457">
-        <v>999</v>
-      </c>
-      <c r="H457">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>493</v>
       </c>
@@ -14242,7 +11492,7 @@
         <v>488</v>
       </c>
       <c r="C458" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D458" t="s">
         <v>41</v>
@@ -14253,14 +11503,8 @@
       <c r="F458" s="2">
         <v>2</v>
       </c>
-      <c r="G458">
-        <v>999</v>
-      </c>
-      <c r="H458">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>485</v>
       </c>
@@ -14268,7 +11512,7 @@
         <v>490</v>
       </c>
       <c r="C459" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D459" t="s">
         <v>41</v>
@@ -14279,14 +11523,8 @@
       <c r="F459" s="2">
         <v>2</v>
       </c>
-      <c r="G459">
-        <v>999</v>
-      </c>
-      <c r="H459">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>493</v>
       </c>
@@ -14294,7 +11532,7 @@
         <v>490</v>
       </c>
       <c r="C460" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D460" t="s">
         <v>41</v>
@@ -14305,14 +11543,8 @@
       <c r="F460" s="2">
         <v>2</v>
       </c>
-      <c r="G460">
-        <v>999</v>
-      </c>
-      <c r="H460">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>28</v>
       </c>
@@ -14331,14 +11563,8 @@
       <c r="F461" s="2">
         <v>2</v>
       </c>
-      <c r="G461">
-        <v>999</v>
-      </c>
-      <c r="H461">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>98</v>
       </c>
@@ -14357,14 +11583,8 @@
       <c r="F462" s="2">
         <v>2</v>
       </c>
-      <c r="G462">
-        <v>999</v>
-      </c>
-      <c r="H462">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>137</v>
       </c>
@@ -14383,14 +11603,8 @@
       <c r="F463" s="2">
         <v>2</v>
       </c>
-      <c r="G463">
-        <v>999</v>
-      </c>
-      <c r="H463">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>485</v>
       </c>
@@ -14398,7 +11612,7 @@
         <v>89</v>
       </c>
       <c r="C464" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D464" t="s">
         <v>33</v>
@@ -14409,14 +11623,8 @@
       <c r="F464" s="2">
         <v>2</v>
       </c>
-      <c r="G464">
-        <v>999</v>
-      </c>
-      <c r="H464">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>493</v>
       </c>
@@ -14424,7 +11632,7 @@
         <v>89</v>
       </c>
       <c r="C465" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D465" t="s">
         <v>33</v>
@@ -14435,14 +11643,8 @@
       <c r="F465" s="2">
         <v>2</v>
       </c>
-      <c r="G465">
-        <v>999</v>
-      </c>
-      <c r="H465">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>500</v>
       </c>
@@ -14461,14 +11663,8 @@
       <c r="F466" s="2">
         <v>2</v>
       </c>
-      <c r="G466">
-        <v>999</v>
-      </c>
-      <c r="H466">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>28</v>
       </c>
@@ -14487,14 +11683,8 @@
       <c r="F467" s="2">
         <v>2</v>
       </c>
-      <c r="G467">
-        <v>999</v>
-      </c>
-      <c r="H467">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>98</v>
       </c>
@@ -14513,14 +11703,8 @@
       <c r="F468" s="2">
         <v>2</v>
       </c>
-      <c r="G468">
-        <v>999</v>
-      </c>
-      <c r="H468">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>137</v>
       </c>
@@ -14539,14 +11723,8 @@
       <c r="F469" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G469">
-        <v>999</v>
-      </c>
-      <c r="H469">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>485</v>
       </c>
@@ -14554,7 +11732,7 @@
         <v>91</v>
       </c>
       <c r="C470" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D470" t="s">
         <v>33</v>
@@ -14565,14 +11743,8 @@
       <c r="F470" s="2">
         <v>2</v>
       </c>
-      <c r="G470">
-        <v>999</v>
-      </c>
-      <c r="H470">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>493</v>
       </c>
@@ -14580,7 +11752,7 @@
         <v>91</v>
       </c>
       <c r="C471" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D471" t="s">
         <v>33</v>
@@ -14591,14 +11763,8 @@
       <c r="F471" s="2">
         <v>2</v>
       </c>
-      <c r="G471">
-        <v>999</v>
-      </c>
-      <c r="H471">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>500</v>
       </c>
@@ -14617,14 +11783,8 @@
       <c r="F472" s="2">
         <v>2</v>
       </c>
-      <c r="G472">
-        <v>999</v>
-      </c>
-      <c r="H472">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>137</v>
       </c>
@@ -14643,14 +11803,8 @@
       <c r="F473" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G473">
-        <v>999</v>
-      </c>
-      <c r="H473">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>137</v>
       </c>
@@ -14669,14 +11823,8 @@
       <c r="F474" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G474">
-        <v>999</v>
-      </c>
-      <c r="H474">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>137</v>
       </c>
@@ -14695,14 +11843,8 @@
       <c r="F475" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G475">
-        <v>999</v>
-      </c>
-      <c r="H475">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>137</v>
       </c>
@@ -14721,14 +11863,8 @@
       <c r="F476" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G476">
-        <v>999</v>
-      </c>
-      <c r="H476">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>137</v>
       </c>
@@ -14747,14 +11883,8 @@
       <c r="F477" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G477">
-        <v>999</v>
-      </c>
-      <c r="H477">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>137</v>
       </c>
@@ -14773,14 +11903,8 @@
       <c r="F478" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G478">
-        <v>999</v>
-      </c>
-      <c r="H478">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>28</v>
       </c>
@@ -14799,14 +11923,8 @@
       <c r="F479" s="2">
         <v>2</v>
       </c>
-      <c r="G479">
-        <v>999</v>
-      </c>
-      <c r="H479">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>98</v>
       </c>
@@ -14825,14 +11943,8 @@
       <c r="F480" s="2">
         <v>2</v>
       </c>
-      <c r="G480">
-        <v>999</v>
-      </c>
-      <c r="H480">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>137</v>
       </c>
@@ -14851,14 +11963,8 @@
       <c r="F481" s="2">
         <v>2</v>
       </c>
-      <c r="G481">
-        <v>999</v>
-      </c>
-      <c r="H481">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>485</v>
       </c>
@@ -14866,7 +11972,7 @@
         <v>93</v>
       </c>
       <c r="C482" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D482" t="s">
         <v>33</v>
@@ -14877,14 +11983,8 @@
       <c r="F482" s="2">
         <v>2</v>
       </c>
-      <c r="G482">
-        <v>999</v>
-      </c>
-      <c r="H482">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>493</v>
       </c>
@@ -14892,7 +11992,7 @@
         <v>93</v>
       </c>
       <c r="C483" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D483" t="s">
         <v>33</v>
@@ -14903,14 +12003,8 @@
       <c r="F483" s="2">
         <v>2</v>
       </c>
-      <c r="G483">
-        <v>999</v>
-      </c>
-      <c r="H483">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>500</v>
       </c>
@@ -14929,14 +12023,8 @@
       <c r="F484" s="2">
         <v>2</v>
       </c>
-      <c r="G484">
-        <v>999</v>
-      </c>
-      <c r="H484">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>28</v>
       </c>
@@ -14955,14 +12043,8 @@
       <c r="F485" s="2">
         <v>2</v>
       </c>
-      <c r="G485">
-        <v>999</v>
-      </c>
-      <c r="H485">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>98</v>
       </c>
@@ -14981,14 +12063,8 @@
       <c r="F486" s="2">
         <v>2</v>
       </c>
-      <c r="G486">
-        <v>999</v>
-      </c>
-      <c r="H486">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>485</v>
       </c>
@@ -14996,7 +12072,7 @@
         <v>95</v>
       </c>
       <c r="C487" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D487" t="s">
         <v>33</v>
@@ -15007,14 +12083,8 @@
       <c r="F487" s="2">
         <v>2</v>
       </c>
-      <c r="G487">
-        <v>999</v>
-      </c>
-      <c r="H487">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>493</v>
       </c>
@@ -15022,7 +12092,7 @@
         <v>95</v>
       </c>
       <c r="C488" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D488" t="s">
         <v>33</v>
@@ -15033,14 +12103,8 @@
       <c r="F488" s="2">
         <v>2</v>
       </c>
-      <c r="G488">
-        <v>999</v>
-      </c>
-      <c r="H488">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>500</v>
       </c>
@@ -15059,14 +12123,8 @@
       <c r="F489" s="2">
         <v>2</v>
       </c>
-      <c r="G489">
-        <v>999</v>
-      </c>
-      <c r="H489">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>500</v>
       </c>
@@ -15085,14 +12143,8 @@
       <c r="F490" s="2">
         <v>2</v>
       </c>
-      <c r="G490">
-        <v>999</v>
-      </c>
-      <c r="H490">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>500</v>
       </c>
@@ -15111,14 +12163,8 @@
       <c r="F491" s="2">
         <v>2</v>
       </c>
-      <c r="G491">
-        <v>999</v>
-      </c>
-      <c r="H491">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>500</v>
       </c>
@@ -15137,14 +12183,8 @@
       <c r="F492" s="2">
         <v>2</v>
       </c>
-      <c r="G492">
-        <v>999</v>
-      </c>
-      <c r="H492">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>500</v>
       </c>
@@ -15163,14 +12203,8 @@
       <c r="F493" s="2">
         <v>2</v>
       </c>
-      <c r="G493">
-        <v>999</v>
-      </c>
-      <c r="H493">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>500</v>
       </c>
@@ -15189,14 +12223,8 @@
       <c r="F494" s="2">
         <v>2</v>
       </c>
-      <c r="G494">
-        <v>999</v>
-      </c>
-      <c r="H494">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>500</v>
       </c>
@@ -15215,14 +12243,8 @@
       <c r="F495" s="2">
         <v>2</v>
       </c>
-      <c r="G495">
-        <v>999</v>
-      </c>
-      <c r="H495">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>500</v>
       </c>
@@ -15241,14 +12263,8 @@
       <c r="F496" s="2">
         <v>2</v>
       </c>
-      <c r="G496">
-        <v>999</v>
-      </c>
-      <c r="H496">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>500</v>
       </c>
@@ -15267,14 +12283,8 @@
       <c r="F497" s="2">
         <v>2</v>
       </c>
-      <c r="G497">
-        <v>999</v>
-      </c>
-      <c r="H497">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>500</v>
       </c>
@@ -15293,14 +12303,8 @@
       <c r="F498" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G498">
-        <v>999</v>
-      </c>
-      <c r="H498">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>493</v>
       </c>
@@ -15308,7 +12312,7 @@
         <v>498</v>
       </c>
       <c r="C499" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D499" t="s">
         <v>9</v>
@@ -15319,14 +12323,8 @@
       <c r="F499" s="2">
         <v>2</v>
       </c>
-      <c r="G499">
-        <v>999</v>
-      </c>
-      <c r="H499">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>500</v>
       </c>
@@ -15345,14 +12343,8 @@
       <c r="F500" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G500">
-        <v>999</v>
-      </c>
-      <c r="H500">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>500</v>
       </c>
@@ -15371,14 +12363,8 @@
       <c r="F501" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G501">
-        <v>999</v>
-      </c>
-      <c r="H501">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>137</v>
       </c>
@@ -15397,14 +12383,8 @@
       <c r="F502" s="2">
         <v>2</v>
       </c>
-      <c r="G502">
-        <v>999</v>
-      </c>
-      <c r="H502">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>137</v>
       </c>
@@ -15423,14 +12403,8 @@
       <c r="F503" s="2">
         <v>2</v>
       </c>
-      <c r="G503">
-        <v>999</v>
-      </c>
-      <c r="H503">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>28</v>
       </c>
@@ -15449,14 +12423,8 @@
       <c r="F504" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G504">
-        <v>999</v>
-      </c>
-      <c r="H504">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>453</v>
       </c>
@@ -15475,15 +12443,9 @@
       <c r="F505" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G505">
-        <v>999</v>
-      </c>
-      <c r="H505">
-        <v>999</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H505">
+  <autoFilter ref="A1:F505">
     <sortState ref="A2:H506">
       <sortCondition ref="B1:B506"/>
     </sortState>

--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work Projects\cpv\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_175EAAC150BB7296499C3516F21ABD484EA7ED2B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AC4335D3-7128-4B3F-A40F-3BE16362C3A8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="3090" yWindow="915" windowWidth="21600" windowHeight="14190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -1904,7 +1905,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2115,6 +2116,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2150,6 +2168,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2325,11 +2360,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2364,7 +2400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2384,7 +2420,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>476</v>
       </c>
@@ -2404,7 +2440,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>500</v>
       </c>
@@ -2424,7 +2460,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>581</v>
       </c>
@@ -2444,7 +2480,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>581</v>
       </c>
@@ -2464,7 +2500,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>581</v>
       </c>
@@ -2484,7 +2520,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>581</v>
       </c>
@@ -2504,7 +2540,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>581</v>
       </c>
@@ -2524,7 +2560,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>581</v>
       </c>
@@ -2544,7 +2580,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>581</v>
       </c>
@@ -2564,7 +2600,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>581</v>
       </c>
@@ -2624,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2644,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -2684,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>485</v>
       </c>
@@ -2704,7 +2740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>493</v>
       </c>
@@ -2724,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>500</v>
       </c>
@@ -2744,7 +2780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2764,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -2804,7 +2840,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>485</v>
       </c>
@@ -2824,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>493</v>
       </c>
@@ -2844,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>500</v>
       </c>
@@ -2984,7 +3020,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -3004,7 +3040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -3044,7 +3080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -3064,7 +3100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -3089,22 +3125,22 @@
         <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
         <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>485</v>
       </c>
@@ -3124,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>493</v>
       </c>
@@ -3144,7 +3180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>500</v>
       </c>
@@ -3168,23 +3204,23 @@
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>149</v>
+      <c r="B42" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C42" t="s">
         <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
@@ -3204,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>493</v>
       </c>
@@ -3224,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -3244,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -3264,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>611</v>
       </c>
@@ -3284,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>611</v>
       </c>
@@ -3304,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>370</v>
       </c>
@@ -3324,7 +3360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>370</v>
       </c>
@@ -3344,7 +3380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>370</v>
       </c>
@@ -3364,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>370</v>
       </c>
@@ -3384,7 +3420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>370</v>
       </c>
@@ -3404,7 +3440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>370</v>
       </c>
@@ -3424,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>370</v>
       </c>
@@ -3444,7 +3480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>570</v>
       </c>
@@ -3464,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>370</v>
       </c>
@@ -3484,7 +3520,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>370</v>
       </c>
@@ -3504,7 +3540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>570</v>
       </c>
@@ -3524,7 +3560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>570</v>
       </c>
@@ -3549,22 +3585,22 @@
         <v>137</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>623</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
         <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>549</v>
       </c>
@@ -3584,7 +3620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>215</v>
       </c>
@@ -3604,7 +3640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>215</v>
       </c>
@@ -3624,7 +3660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>215</v>
       </c>
@@ -3644,7 +3680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
@@ -3664,7 +3700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>215</v>
       </c>
@@ -3684,7 +3720,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>215</v>
       </c>
@@ -3704,7 +3740,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>215</v>
       </c>
@@ -3724,7 +3760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>215</v>
       </c>
@@ -3744,7 +3780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -3764,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -3784,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>215</v>
       </c>
@@ -3804,7 +3840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>215</v>
       </c>
@@ -3824,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>215</v>
       </c>
@@ -3844,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>549</v>
       </c>
@@ -3864,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>215</v>
       </c>
@@ -3884,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>215</v>
       </c>
@@ -3904,7 +3940,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>549</v>
       </c>
@@ -3924,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>215</v>
       </c>
@@ -3944,7 +3980,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>215</v>
       </c>
@@ -3964,7 +4000,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>215</v>
       </c>
@@ -3984,7 +4020,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>549</v>
       </c>
@@ -4004,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>215</v>
       </c>
@@ -4024,7 +4060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>215</v>
       </c>
@@ -4044,7 +4080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>215</v>
       </c>
@@ -4064,7 +4100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>215</v>
       </c>
@@ -4084,7 +4120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>215</v>
       </c>
@@ -4104,7 +4140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>215</v>
       </c>
@@ -4124,7 +4160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>215</v>
       </c>
@@ -4144,7 +4180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>215</v>
       </c>
@@ -4164,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>215</v>
       </c>
@@ -4184,7 +4220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>215</v>
       </c>
@@ -4204,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>215</v>
       </c>
@@ -4224,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>215</v>
       </c>
@@ -4244,7 +4280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>549</v>
       </c>
@@ -4264,7 +4300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>549</v>
       </c>
@@ -4284,7 +4320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>549</v>
       </c>
@@ -4304,7 +4340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>215</v>
       </c>
@@ -4324,7 +4360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>215</v>
       </c>
@@ -4344,7 +4380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>215</v>
       </c>
@@ -4364,7 +4400,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>215</v>
       </c>
@@ -4384,7 +4420,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>215</v>
       </c>
@@ -4404,7 +4440,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>215</v>
       </c>
@@ -4424,7 +4460,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>549</v>
       </c>
@@ -4444,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>215</v>
       </c>
@@ -4464,7 +4500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>215</v>
       </c>
@@ -4484,7 +4520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>215</v>
       </c>
@@ -4504,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>215</v>
       </c>
@@ -4524,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>215</v>
       </c>
@@ -4544,7 +4580,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>215</v>
       </c>
@@ -4564,7 +4600,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>215</v>
       </c>
@@ -4584,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>549</v>
       </c>
@@ -4604,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>215</v>
       </c>
@@ -4624,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>215</v>
       </c>
@@ -4644,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>215</v>
       </c>
@@ -4664,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>215</v>
       </c>
@@ -4684,7 +4720,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>215</v>
       </c>
@@ -4704,7 +4740,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>549</v>
       </c>
@@ -4724,7 +4760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>549</v>
       </c>
@@ -4744,7 +4780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>215</v>
       </c>
@@ -4764,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>549</v>
       </c>
@@ -4784,7 +4820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>215</v>
       </c>
@@ -4804,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>215</v>
       </c>
@@ -4824,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>215</v>
       </c>
@@ -4844,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>215</v>
       </c>
@@ -4864,7 +4900,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>215</v>
       </c>
@@ -4884,7 +4920,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>311</v>
       </c>
@@ -4904,7 +4940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>611</v>
       </c>
@@ -4924,7 +4960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>577</v>
       </c>
@@ -4944,7 +4980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>311</v>
       </c>
@@ -4964,7 +5000,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>311</v>
       </c>
@@ -4984,7 +5020,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>311</v>
       </c>
@@ -5004,7 +5040,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>311</v>
       </c>
@@ -5024,7 +5060,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>311</v>
       </c>
@@ -5044,7 +5080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>611</v>
       </c>
@@ -5064,7 +5100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>577</v>
       </c>
@@ -5084,7 +5120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>311</v>
       </c>
@@ -5104,7 +5140,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>311</v>
       </c>
@@ -5124,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>311</v>
       </c>
@@ -5144,7 +5180,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>311</v>
       </c>
@@ -5164,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>611</v>
       </c>
@@ -5184,7 +5220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>577</v>
       </c>
@@ -5204,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>311</v>
       </c>
@@ -5224,7 +5260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>311</v>
       </c>
@@ -5244,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>311</v>
       </c>
@@ -5264,7 +5300,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>311</v>
       </c>
@@ -5284,7 +5320,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>311</v>
       </c>
@@ -5304,7 +5340,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>311</v>
       </c>
@@ -5324,7 +5360,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>311</v>
       </c>
@@ -5344,7 +5380,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>311</v>
       </c>
@@ -5364,7 +5400,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>311</v>
       </c>
@@ -5384,7 +5420,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>311</v>
       </c>
@@ -5404,7 +5440,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>311</v>
       </c>
@@ -5424,7 +5460,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>311</v>
       </c>
@@ -5444,7 +5480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>577</v>
       </c>
@@ -5464,7 +5500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>311</v>
       </c>
@@ -5484,7 +5520,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>611</v>
       </c>
@@ -5504,7 +5540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>311</v>
       </c>
@@ -5524,7 +5560,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>311</v>
       </c>
@@ -5544,7 +5580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>311</v>
       </c>
@@ -5564,7 +5600,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>311</v>
       </c>
@@ -5584,7 +5620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>611</v>
       </c>
@@ -5604,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>577</v>
       </c>
@@ -5624,7 +5660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>311</v>
       </c>
@@ -5644,7 +5680,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>311</v>
       </c>
@@ -5664,7 +5700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>311</v>
       </c>
@@ -5684,7 +5720,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>611</v>
       </c>
@@ -5704,7 +5740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>370</v>
       </c>
@@ -5724,7 +5760,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>370</v>
       </c>
@@ -5744,7 +5780,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>370</v>
       </c>
@@ -5764,7 +5800,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>370</v>
       </c>
@@ -5784,7 +5820,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>370</v>
       </c>
@@ -5804,7 +5840,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>370</v>
       </c>
@@ -5824,7 +5860,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>370</v>
       </c>
@@ -5844,7 +5880,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>311</v>
       </c>
@@ -5864,7 +5900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>370</v>
       </c>
@@ -5884,7 +5920,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>549</v>
       </c>
@@ -5904,7 +5940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>611</v>
       </c>
@@ -5924,7 +5960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>570</v>
       </c>
@@ -5944,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>577</v>
       </c>
@@ -5964,7 +6000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>370</v>
       </c>
@@ -5984,7 +6020,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>370</v>
       </c>
@@ -6004,7 +6040,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>370</v>
       </c>
@@ -6024,7 +6060,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>370</v>
       </c>
@@ -6044,7 +6080,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>370</v>
       </c>
@@ -6064,7 +6100,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>370</v>
       </c>
@@ -6084,7 +6120,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>370</v>
       </c>
@@ -6104,7 +6140,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>549</v>
       </c>
@@ -6124,7 +6160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>611</v>
       </c>
@@ -6144,7 +6180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>570</v>
       </c>
@@ -6164,7 +6200,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>577</v>
       </c>
@@ -6184,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>370</v>
       </c>
@@ -6204,7 +6240,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>370</v>
       </c>
@@ -6224,7 +6260,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>370</v>
       </c>
@@ -6244,7 +6280,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>370</v>
       </c>
@@ -6264,7 +6300,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>370</v>
       </c>
@@ -6284,7 +6320,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>370</v>
       </c>
@@ -6304,7 +6340,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>370</v>
       </c>
@@ -6324,7 +6360,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>370</v>
       </c>
@@ -6344,7 +6380,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>370</v>
       </c>
@@ -6364,7 +6400,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>370</v>
       </c>
@@ -6384,7 +6420,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>370</v>
       </c>
@@ -6404,7 +6440,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>370</v>
       </c>
@@ -6424,7 +6460,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>370</v>
       </c>
@@ -6444,7 +6480,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>370</v>
       </c>
@@ -6464,7 +6500,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>370</v>
       </c>
@@ -6484,7 +6520,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>370</v>
       </c>
@@ -6509,22 +6545,22 @@
         <v>137</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C209" t="s">
         <v>139</v>
       </c>
       <c r="D209" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="E209" t="s">
-        <v>154</v>
-      </c>
-      <c r="F209" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>311</v>
       </c>
@@ -6544,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>370</v>
       </c>
@@ -6564,7 +6600,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>549</v>
       </c>
@@ -6584,7 +6620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>611</v>
       </c>
@@ -6604,7 +6640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>570</v>
       </c>
@@ -6624,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>577</v>
       </c>
@@ -6644,7 +6680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>311</v>
       </c>
@@ -6664,7 +6700,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>370</v>
       </c>
@@ -6684,7 +6720,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>311</v>
       </c>
@@ -6704,7 +6740,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>370</v>
       </c>
@@ -6724,7 +6760,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>311</v>
       </c>
@@ -6744,7 +6780,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>370</v>
       </c>
@@ -6764,7 +6800,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>311</v>
       </c>
@@ -6784,7 +6820,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>370</v>
       </c>
@@ -6804,7 +6840,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>370</v>
       </c>
@@ -6824,7 +6860,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>370</v>
       </c>
@@ -6844,7 +6880,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>370</v>
       </c>
@@ -6864,7 +6900,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>370</v>
       </c>
@@ -6884,7 +6920,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>370</v>
       </c>
@@ -6904,7 +6940,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>370</v>
       </c>
@@ -6924,7 +6960,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>370</v>
       </c>
@@ -6944,7 +6980,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>370</v>
       </c>
@@ -6964,7 +7000,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>311</v>
       </c>
@@ -6984,7 +7020,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>370</v>
       </c>
@@ -7004,7 +7040,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>311</v>
       </c>
@@ -7024,7 +7060,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>370</v>
       </c>
@@ -7044,7 +7080,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>311</v>
       </c>
@@ -7064,7 +7100,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>370</v>
       </c>
@@ -7084,7 +7120,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>311</v>
       </c>
@@ -7104,7 +7140,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>370</v>
       </c>
@@ -7124,7 +7160,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>370</v>
       </c>
@@ -7144,7 +7180,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>370</v>
       </c>
@@ -7164,7 +7200,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>370</v>
       </c>
@@ -7184,7 +7220,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>370</v>
       </c>
@@ -7204,7 +7240,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>370</v>
       </c>
@@ -7224,7 +7260,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>370</v>
       </c>
@@ -7244,7 +7280,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>370</v>
       </c>
@@ -7264,7 +7300,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>370</v>
       </c>
@@ -7284,7 +7320,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>370</v>
       </c>
@@ -7304,7 +7340,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>370</v>
       </c>
@@ -7324,7 +7360,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>370</v>
       </c>
@@ -7344,7 +7380,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>370</v>
       </c>
@@ -7364,7 +7400,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>370</v>
       </c>
@@ -7384,7 +7420,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>370</v>
       </c>
@@ -7404,7 +7440,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>370</v>
       </c>
@@ -7424,7 +7460,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>370</v>
       </c>
@@ -7444,7 +7480,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>611</v>
       </c>
@@ -7464,7 +7500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>476</v>
       </c>
@@ -7484,7 +7520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>476</v>
       </c>
@@ -7504,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>476</v>
       </c>
@@ -7524,7 +7560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>476</v>
       </c>
@@ -7544,7 +7580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>476</v>
       </c>
@@ -7564,7 +7600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>476</v>
       </c>
@@ -7584,7 +7620,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>476</v>
       </c>
@@ -7604,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>453</v>
       </c>
@@ -7624,7 +7660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>476</v>
       </c>
@@ -7644,7 +7680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>453</v>
       </c>
@@ -7664,7 +7700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>476</v>
       </c>
@@ -7684,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>453</v>
       </c>
@@ -7704,7 +7740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>476</v>
       </c>
@@ -7724,7 +7760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>453</v>
       </c>
@@ -7744,7 +7780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>476</v>
       </c>
@@ -7764,7 +7800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>453</v>
       </c>
@@ -7784,7 +7820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>476</v>
       </c>
@@ -7804,7 +7840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>453</v>
       </c>
@@ -7824,7 +7860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>476</v>
       </c>
@@ -7844,7 +7880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>453</v>
       </c>
@@ -7864,7 +7900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>453</v>
       </c>
@@ -7884,7 +7920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>453</v>
       </c>
@@ -7904,7 +7940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>453</v>
       </c>
@@ -7924,7 +7960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>453</v>
       </c>
@@ -7944,7 +7980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>453</v>
       </c>
@@ -7964,7 +8000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>453</v>
       </c>
@@ -7984,7 +8020,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>98</v>
       </c>
@@ -8004,7 +8040,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>6</v>
       </c>
@@ -8024,7 +8060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>493</v>
       </c>
@@ -8044,7 +8080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>28</v>
       </c>
@@ -8064,7 +8100,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>98</v>
       </c>
@@ -8089,7 +8125,7 @@
         <v>137</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C288" t="s">
         <v>139</v>
@@ -8098,7 +8134,7 @@
         <v>33</v>
       </c>
       <c r="E288" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>612</v>
@@ -8109,7 +8145,7 @@
         <v>137</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C289" t="s">
         <v>139</v>
@@ -8118,7 +8154,7 @@
         <v>33</v>
       </c>
       <c r="E289" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>612</v>
@@ -8129,7 +8165,7 @@
         <v>137</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C290" t="s">
         <v>139</v>
@@ -8138,7 +8174,7 @@
         <v>33</v>
       </c>
       <c r="E290" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>612</v>
@@ -8149,7 +8185,7 @@
         <v>137</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="C291" t="s">
         <v>139</v>
@@ -8158,7 +8194,7 @@
         <v>33</v>
       </c>
       <c r="E291" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>612</v>
@@ -8169,7 +8205,7 @@
         <v>137</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C292" t="s">
         <v>139</v>
@@ -8178,7 +8214,7 @@
         <v>33</v>
       </c>
       <c r="E292" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>612</v>
@@ -8189,7 +8225,7 @@
         <v>137</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="C293" t="s">
         <v>139</v>
@@ -8198,10 +8234,10 @@
         <v>33</v>
       </c>
       <c r="E293" t="s">
-        <v>166</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>612</v>
+        <v>133</v>
+      </c>
+      <c r="F293" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -8209,7 +8245,7 @@
         <v>137</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="C294" t="s">
         <v>139</v>
@@ -8218,13 +8254,13 @@
         <v>33</v>
       </c>
       <c r="E294" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>28</v>
       </c>
@@ -8244,7 +8280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>98</v>
       </c>
@@ -8264,7 +8300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>485</v>
       </c>
@@ -8284,7 +8320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>493</v>
       </c>
@@ -8304,7 +8340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>500</v>
       </c>
@@ -8324,7 +8360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>98</v>
       </c>
@@ -8344,7 +8380,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>28</v>
       </c>
@@ -8364,7 +8400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>98</v>
       </c>
@@ -8389,7 +8425,7 @@
         <v>137</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="C303" t="s">
         <v>139</v>
@@ -8398,13 +8434,13 @@
         <v>33</v>
       </c>
       <c r="E303" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>485</v>
       </c>
@@ -8424,7 +8460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>493</v>
       </c>
@@ -8444,7 +8480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>500</v>
       </c>
@@ -8464,7 +8500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>28</v>
       </c>
@@ -8484,7 +8520,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>98</v>
       </c>
@@ -8504,7 +8540,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>485</v>
       </c>
@@ -8524,7 +8560,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>493</v>
       </c>
@@ -8544,7 +8580,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>500</v>
       </c>
@@ -8569,7 +8605,7 @@
         <v>137</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C312" t="s">
         <v>139</v>
@@ -8578,13 +8614,13 @@
         <v>33</v>
       </c>
       <c r="E312" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>28</v>
       </c>
@@ -8604,7 +8640,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>98</v>
       </c>
@@ -8624,7 +8660,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>485</v>
       </c>
@@ -8644,7 +8680,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>493</v>
       </c>
@@ -8664,7 +8700,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>500</v>
       </c>
@@ -8684,7 +8720,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>28</v>
       </c>
@@ -8704,7 +8740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>98</v>
       </c>
@@ -8724,7 +8760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>485</v>
       </c>
@@ -8744,7 +8780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>493</v>
       </c>
@@ -8764,7 +8800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>500</v>
       </c>
@@ -8784,7 +8820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>485</v>
       </c>
@@ -8804,7 +8840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>493</v>
       </c>
@@ -8824,7 +8860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>28</v>
       </c>
@@ -8844,7 +8880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>98</v>
       </c>
@@ -8869,22 +8905,22 @@
         <v>137</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="C327" t="s">
         <v>139</v>
       </c>
       <c r="D327" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E327" t="s">
-        <v>58</v>
-      </c>
-      <c r="F327" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>485</v>
       </c>
@@ -8904,7 +8940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>493</v>
       </c>
@@ -8924,7 +8960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>500</v>
       </c>
@@ -8944,7 +8980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>28</v>
       </c>
@@ -8964,7 +9000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>98</v>
       </c>
@@ -8984,7 +9020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>485</v>
       </c>
@@ -9004,7 +9040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>493</v>
       </c>
@@ -9024,7 +9060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>500</v>
       </c>
@@ -9044,7 +9080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>28</v>
       </c>
@@ -9064,7 +9100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>98</v>
       </c>
@@ -9089,22 +9125,22 @@
         <v>137</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="C338" t="s">
         <v>139</v>
       </c>
       <c r="D338" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E338" t="s">
-        <v>62</v>
-      </c>
-      <c r="F338" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>485</v>
       </c>
@@ -9124,7 +9160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>493</v>
       </c>
@@ -9144,7 +9180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>500</v>
       </c>
@@ -9164,7 +9200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>28</v>
       </c>
@@ -9184,7 +9220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>98</v>
       </c>
@@ -9204,7 +9240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>485</v>
       </c>
@@ -9224,7 +9260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>493</v>
       </c>
@@ -9244,7 +9280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>500</v>
       </c>
@@ -9264,7 +9300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>28</v>
       </c>
@@ -9284,7 +9320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>98</v>
       </c>
@@ -9304,7 +9340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>485</v>
       </c>
@@ -9324,7 +9360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>493</v>
       </c>
@@ -9344,7 +9380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>500</v>
       </c>
@@ -9369,16 +9405,16 @@
         <v>137</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C352" t="s">
         <v>139</v>
       </c>
       <c r="D352" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E352" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>612</v>
@@ -9389,16 +9425,16 @@
         <v>137</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C353" t="s">
         <v>139</v>
       </c>
       <c r="D353" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E353" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>612</v>
@@ -9409,19 +9445,19 @@
         <v>137</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="C354" t="s">
         <v>139</v>
       </c>
       <c r="D354" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E354" t="s">
-        <v>177</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>612</v>
+        <v>135</v>
+      </c>
+      <c r="F354" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -9429,7 +9465,7 @@
         <v>137</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="C355" t="s">
         <v>139</v>
@@ -9438,18 +9474,18 @@
         <v>41</v>
       </c>
       <c r="E355" t="s">
-        <v>179</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>612</v>
+        <v>42</v>
+      </c>
+      <c r="F355" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>180</v>
+      <c r="B356" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C356" t="s">
         <v>139</v>
@@ -9458,10 +9494,10 @@
         <v>41</v>
       </c>
       <c r="E356" t="s">
-        <v>181</v>
-      </c>
-      <c r="F356" s="2" t="s">
-        <v>612</v>
+        <v>150</v>
+      </c>
+      <c r="F356" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -9469,7 +9505,7 @@
         <v>137</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="C357" t="s">
         <v>139</v>
@@ -9478,10 +9514,10 @@
         <v>41</v>
       </c>
       <c r="E357" t="s">
-        <v>183</v>
-      </c>
-      <c r="F357" s="2" t="s">
-        <v>612</v>
+        <v>58</v>
+      </c>
+      <c r="F357" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -9489,7 +9525,7 @@
         <v>137</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="C358" t="s">
         <v>139</v>
@@ -9498,13 +9534,13 @@
         <v>41</v>
       </c>
       <c r="E358" t="s">
-        <v>185</v>
-      </c>
-      <c r="F358" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F358" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>28</v>
       </c>
@@ -9524,7 +9560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>98</v>
       </c>
@@ -9544,7 +9580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>485</v>
       </c>
@@ -9564,7 +9600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>493</v>
       </c>
@@ -9584,7 +9620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>500</v>
       </c>
@@ -9604,7 +9640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>28</v>
       </c>
@@ -9624,7 +9660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>98</v>
       </c>
@@ -9649,7 +9685,7 @@
         <v>137</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="C366" t="s">
         <v>139</v>
@@ -9658,13 +9694,13 @@
         <v>41</v>
       </c>
       <c r="E366" t="s">
-        <v>70</v>
-      </c>
-      <c r="F366" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>485</v>
       </c>
@@ -9684,7 +9720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>493</v>
       </c>
@@ -9704,7 +9740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>500</v>
       </c>
@@ -9724,7 +9760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>28</v>
       </c>
@@ -9744,7 +9780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>98</v>
       </c>
@@ -9769,7 +9805,7 @@
         <v>137</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="C372" t="s">
         <v>139</v>
@@ -9778,13 +9814,13 @@
         <v>41</v>
       </c>
       <c r="E372" t="s">
-        <v>72</v>
-      </c>
-      <c r="F372" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>485</v>
       </c>
@@ -9804,7 +9840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>493</v>
       </c>
@@ -9824,7 +9860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>500</v>
       </c>
@@ -9844,7 +9880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>28</v>
       </c>
@@ -9864,7 +9900,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>98</v>
       </c>
@@ -9884,7 +9920,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>485</v>
       </c>
@@ -9904,7 +9940,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>493</v>
       </c>
@@ -9924,7 +9960,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>500</v>
       </c>
@@ -9944,7 +9980,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>500</v>
       </c>
@@ -9964,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>500</v>
       </c>
@@ -9984,7 +10020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>500</v>
       </c>
@@ -10004,7 +10040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>500</v>
       </c>
@@ -10024,7 +10060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>500</v>
       </c>
@@ -10044,7 +10080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>500</v>
       </c>
@@ -10064,7 +10100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>500</v>
       </c>
@@ -10084,7 +10120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>500</v>
       </c>
@@ -10109,19 +10145,19 @@
         <v>137</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C389" t="s">
         <v>139</v>
       </c>
       <c r="D389" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E389" t="s">
-        <v>187</v>
-      </c>
-      <c r="F389" s="2">
-        <v>2</v>
+        <v>177</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -10129,22 +10165,22 @@
         <v>137</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C390" t="s">
         <v>139</v>
       </c>
       <c r="D390" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E390" t="s">
-        <v>189</v>
-      </c>
-      <c r="F390" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>28</v>
       </c>
@@ -10164,7 +10200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>98</v>
       </c>
@@ -10184,7 +10220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>500</v>
       </c>
@@ -10204,7 +10240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>98</v>
       </c>
@@ -10224,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>98</v>
       </c>
@@ -10244,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>98</v>
       </c>
@@ -10264,7 +10300,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>28</v>
       </c>
@@ -10284,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>98</v>
       </c>
@@ -10304,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>28</v>
       </c>
@@ -10324,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>98</v>
       </c>
@@ -10344,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>98</v>
       </c>
@@ -10364,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>500</v>
       </c>
@@ -10384,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>98</v>
       </c>
@@ -10404,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>500</v>
       </c>
@@ -10424,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>98</v>
       </c>
@@ -10444,7 +10480,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>6</v>
       </c>
@@ -10464,7 +10500,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>493</v>
       </c>
@@ -10484,7 +10520,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>6</v>
       </c>
@@ -10509,22 +10545,22 @@
         <v>137</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="C409" t="s">
         <v>139</v>
       </c>
       <c r="D409" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E409" t="s">
-        <v>622</v>
-      </c>
-      <c r="F409" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>493</v>
       </c>
@@ -10544,7 +10580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>500</v>
       </c>
@@ -10564,7 +10600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>28</v>
       </c>
@@ -10584,7 +10620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>98</v>
       </c>
@@ -10604,7 +10640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>500</v>
       </c>
@@ -10624,7 +10660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>28</v>
       </c>
@@ -10644,7 +10680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>98</v>
       </c>
@@ -10664,7 +10700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>500</v>
       </c>
@@ -10684,7 +10720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>98</v>
       </c>
@@ -10704,7 +10740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>28</v>
       </c>
@@ -10724,7 +10760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>98</v>
       </c>
@@ -10744,7 +10780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>28</v>
       </c>
@@ -10764,7 +10800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>98</v>
       </c>
@@ -10784,7 +10820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>98</v>
       </c>
@@ -10809,19 +10845,19 @@
         <v>137</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C424" t="s">
         <v>139</v>
       </c>
       <c r="D424" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E424" t="s">
-        <v>191</v>
-      </c>
-      <c r="F424" s="2">
-        <v>2</v>
+        <v>183</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -10829,19 +10865,19 @@
         <v>137</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C425" t="s">
         <v>139</v>
       </c>
       <c r="D425" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E425" t="s">
-        <v>193</v>
-      </c>
-      <c r="F425" s="2">
-        <v>2</v>
+        <v>185</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -10849,16 +10885,16 @@
         <v>137</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="C426" t="s">
         <v>139</v>
       </c>
       <c r="D426" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E426" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="F426" s="2">
         <v>2</v>
@@ -10869,22 +10905,22 @@
         <v>137</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="C427" t="s">
         <v>139</v>
       </c>
       <c r="D427" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E427" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="F427" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>6</v>
       </c>
@@ -10904,7 +10940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>28</v>
       </c>
@@ -10924,7 +10960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>98</v>
       </c>
@@ -10944,7 +10980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>493</v>
       </c>
@@ -10964,7 +11000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>500</v>
       </c>
@@ -10984,7 +11020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>6</v>
       </c>
@@ -11004,7 +11040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>28</v>
       </c>
@@ -11024,7 +11060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>98</v>
       </c>
@@ -11044,7 +11080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>493</v>
       </c>
@@ -11064,7 +11100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>500</v>
       </c>
@@ -11084,7 +11120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>500</v>
       </c>
@@ -11104,7 +11140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>500</v>
       </c>
@@ -11124,7 +11160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>493</v>
       </c>
@@ -11144,7 +11180,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>6</v>
       </c>
@@ -11164,7 +11200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>28</v>
       </c>
@@ -11184,7 +11220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>98</v>
       </c>
@@ -11209,22 +11245,22 @@
         <v>137</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>22</v>
+        <v>623</v>
       </c>
       <c r="C444" t="s">
         <v>139</v>
       </c>
       <c r="D444" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="E444" t="s">
-        <v>169</v>
-      </c>
-      <c r="F444" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="F444" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>493</v>
       </c>
@@ -11244,7 +11280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>500</v>
       </c>
@@ -11264,7 +11300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>6</v>
       </c>
@@ -11284,7 +11320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>28</v>
       </c>
@@ -11304,7 +11340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>98</v>
       </c>
@@ -11329,22 +11365,22 @@
         <v>137</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="C450" t="s">
         <v>139</v>
       </c>
       <c r="D450" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="E450" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="F450" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>493</v>
       </c>
@@ -11364,7 +11400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>500</v>
       </c>
@@ -11384,7 +11420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>6</v>
       </c>
@@ -11404,7 +11440,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>28</v>
       </c>
@@ -11424,7 +11460,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>98</v>
       </c>
@@ -11444,7 +11480,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>493</v>
       </c>
@@ -11464,7 +11500,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>485</v>
       </c>
@@ -11484,7 +11520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>493</v>
       </c>
@@ -11504,7 +11540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>485</v>
       </c>
@@ -11524,7 +11560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>493</v>
       </c>
@@ -11544,7 +11580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>28</v>
       </c>
@@ -11564,7 +11600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>98</v>
       </c>
@@ -11589,22 +11625,22 @@
         <v>137</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="C463" t="s">
         <v>139</v>
       </c>
       <c r="D463" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="E463" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="F463" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>485</v>
       </c>
@@ -11624,7 +11660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>493</v>
       </c>
@@ -11644,7 +11680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>500</v>
       </c>
@@ -11664,7 +11700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>28</v>
       </c>
@@ -11684,7 +11720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>98</v>
       </c>
@@ -11709,22 +11745,22 @@
         <v>137</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="C469" t="s">
         <v>139</v>
       </c>
       <c r="D469" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="E469" t="s">
-        <v>198</v>
-      </c>
-      <c r="F469" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="F469" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>485</v>
       </c>
@@ -11744,7 +11780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>493</v>
       </c>
@@ -11764,7 +11800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>500</v>
       </c>
@@ -11789,19 +11825,19 @@
         <v>137</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C473" t="s">
         <v>139</v>
       </c>
       <c r="D473" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E473" t="s">
-        <v>200</v>
-      </c>
-      <c r="F473" s="2" t="s">
-        <v>612</v>
+        <v>187</v>
+      </c>
+      <c r="F473" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -11809,19 +11845,19 @@
         <v>137</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C474" t="s">
         <v>139</v>
       </c>
       <c r="D474" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E474" t="s">
-        <v>202</v>
-      </c>
-      <c r="F474" s="2" t="s">
-        <v>612</v>
+        <v>189</v>
+      </c>
+      <c r="F474" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -11829,19 +11865,19 @@
         <v>137</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="C475" t="s">
         <v>139</v>
       </c>
       <c r="D475" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E475" t="s">
-        <v>204</v>
-      </c>
-      <c r="F475" s="2" t="s">
-        <v>612</v>
+        <v>622</v>
+      </c>
+      <c r="F475" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -11849,19 +11885,19 @@
         <v>137</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C476" t="s">
         <v>139</v>
       </c>
       <c r="D476" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E476" t="s">
-        <v>206</v>
-      </c>
-      <c r="F476" s="2" t="s">
-        <v>612</v>
+        <v>191</v>
+      </c>
+      <c r="F476" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -11869,19 +11905,19 @@
         <v>137</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C477" t="s">
         <v>139</v>
       </c>
       <c r="D477" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E477" t="s">
-        <v>208</v>
-      </c>
-      <c r="F477" s="2" t="s">
-        <v>612</v>
+        <v>193</v>
+      </c>
+      <c r="F477" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -11889,22 +11925,22 @@
         <v>137</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C478" t="s">
         <v>139</v>
       </c>
       <c r="D478" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E478" t="s">
-        <v>210</v>
-      </c>
-      <c r="F478" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="F478" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>28</v>
       </c>
@@ -11924,7 +11960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>98</v>
       </c>
@@ -11949,22 +11985,22 @@
         <v>137</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="C481" t="s">
         <v>139</v>
       </c>
       <c r="D481" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E481" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F481" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>485</v>
       </c>
@@ -11984,7 +12020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>493</v>
       </c>
@@ -12004,7 +12040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>500</v>
       </c>
@@ -12024,7 +12060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>28</v>
       </c>
@@ -12044,7 +12080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>98</v>
       </c>
@@ -12064,7 +12100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>485</v>
       </c>
@@ -12084,7 +12120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>493</v>
       </c>
@@ -12104,7 +12140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>500</v>
       </c>
@@ -12124,7 +12160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>500</v>
       </c>
@@ -12144,7 +12180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>500</v>
       </c>
@@ -12164,7 +12200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>500</v>
       </c>
@@ -12184,7 +12220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>500</v>
       </c>
@@ -12204,7 +12240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>500</v>
       </c>
@@ -12224,7 +12260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>500</v>
       </c>
@@ -12244,7 +12280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>500</v>
       </c>
@@ -12264,7 +12300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>500</v>
       </c>
@@ -12284,7 +12320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>500</v>
       </c>
@@ -12304,7 +12340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>493</v>
       </c>
@@ -12324,7 +12360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>500</v>
       </c>
@@ -12344,7 +12380,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>500</v>
       </c>
@@ -12369,19 +12405,19 @@
         <v>137</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="C502" t="s">
         <v>139</v>
       </c>
       <c r="D502" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="E502" t="s">
-        <v>212</v>
-      </c>
-      <c r="F502" s="2">
-        <v>2</v>
+        <v>169</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -12389,22 +12425,22 @@
         <v>137</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="C503" t="s">
         <v>139</v>
       </c>
       <c r="D503" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="E503" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="F503" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>28</v>
       </c>
@@ -12424,7 +12460,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>453</v>
       </c>
@@ -12445,12 +12481,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F505">
-    <sortState ref="A2:H506">
-      <sortCondition ref="B1:B506"/>
+  <autoFilter ref="A1:F505" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="TAK-491"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:F503">
+      <sortCondition ref="D1:D505"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:H538">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H538">
     <sortCondition ref="A2:A538"/>
     <sortCondition ref="D2:D538"/>
     <sortCondition ref="B2:B538"/>

--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_175EAAC150BB7296499C3516F21ABD484EA7ED2B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AC4335D3-7128-4B3F-A40F-3BE16362C3A8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_175EAAC150BB7296499C3516F21ABD484EA7ED2B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FBDDA56A-C178-49E2-9160-2CE7438CB811}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="915" windowWidth="21600" windowHeight="14190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32220" yWindow="2445" windowWidth="26985" windowHeight="14190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -2365,7 +2365,7 @@
   <dimension ref="A1:F505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2620,7 +2620,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>137</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>137</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>137</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>137</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>137</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>137</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>137</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>137</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>137</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>98</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>98</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>137</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>137</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>137</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>137</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>137</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>137</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>137</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>98</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>98</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>98</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>137</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>98</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>137</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>98</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>98</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>98</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>137</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>98</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>98</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>137</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>98</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>98</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>137</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>137</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>137</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>137</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>137</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>137</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>137</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>98</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>98</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>137</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>98</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>137</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>98</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>137</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>137</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>98</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>98</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>98</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>98</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>98</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>98</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>98</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>98</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>98</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>137</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>98</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>98</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>98</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>98</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>98</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>98</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>137</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>137</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>137</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>137</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>98</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>98</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>98</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>137</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>98</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>137</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>98</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>98</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>137</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>98</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>137</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>137</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>137</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>137</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>137</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>137</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>137</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>98</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>137</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>98</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>137</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>137</v>
       </c>
@@ -12484,7 +12484,7 @@
   <autoFilter ref="A1:F505" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="TAK-491"/>
+        <filter val="AD-4833"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:F503">

--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_175EAAC150BB7296499C3516F21ABD484EA7ED2B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0E2F965E-473B-40FD-BFF6-807464D6179C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_175EAAC150BB7296499C3516F21ABD484EA7ED2B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B2E17C8E-E193-4023-BED0-9C8B41574384}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="1515" windowWidth="26385" windowHeight="14415" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="465" windowWidth="21315" windowHeight="12165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -2359,7 +2359,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E325" sqref="E325:E357"/>
+      <selection pane="bottomLeft" activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/params_main.xlsx
+++ b/input/params_main.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_175EAAC150BB7296499C3516F21ABD484EA7ED2B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C6C5B48E-2AB0-4B92-A879-A1341D3F903E}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="930" windowWidth="21600" windowHeight="14550" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="930" windowWidth="21600" windowHeight="14550" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameters!$A$1:$F$505</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameters!$A$1:$F$537</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="776">
   <si>
     <t>emi_master</t>
   </si>
@@ -2224,12 +2223,150 @@
   </si>
   <si>
     <t>ECM_YIELD</t>
+  </si>
+  <si>
+    <t>TIL_FIRSTDRUM_PSDT7</t>
+  </si>
+  <si>
+    <t>TIL_FIRSTDRUM_PSDT8</t>
+  </si>
+  <si>
+    <t>TIL_FIRSTDRUM_RESULT27</t>
+  </si>
+  <si>
+    <t>TIL_FIRSTDRUM_RESULT28</t>
+  </si>
+  <si>
+    <t>TIL_IPT_ERH_%7</t>
+  </si>
+  <si>
+    <t>TIL_IPT_ERH_%8</t>
+  </si>
+  <si>
+    <t>TIL_CF_SPRAY_QTY_LOT1</t>
+  </si>
+  <si>
+    <t>TIL_CF_SPRAY_QTY_LOT2</t>
+  </si>
+  <si>
+    <t>TIL_CF_SPRAY_QTY_LOT3</t>
+  </si>
+  <si>
+    <t>TIL_CF_SPRAY_QTY_LOT4</t>
+  </si>
+  <si>
+    <t>TIL_CF_SPRAY_QTY_LOT5</t>
+  </si>
+  <si>
+    <t>TIL_CF_SPRAY_QTY_LOT6</t>
+  </si>
+  <si>
+    <t>TIL_CF_SPRAY_QTY_LOT7</t>
+  </si>
+  <si>
+    <t>TIL_CF_SPRAY_QTY_LOT8</t>
+  </si>
+  <si>
+    <t>PSD1</t>
+  </si>
+  <si>
+    <t>PSD2</t>
+  </si>
+  <si>
+    <t>PSD3</t>
+  </si>
+  <si>
+    <t>PSD4</t>
+  </si>
+  <si>
+    <t>PSD5</t>
+  </si>
+  <si>
+    <t>PSD6</t>
+  </si>
+  <si>
+    <t>PSD7</t>
+  </si>
+  <si>
+    <t>PSD8</t>
+  </si>
+  <si>
+    <t>SV1</t>
+  </si>
+  <si>
+    <t>SV2</t>
+  </si>
+  <si>
+    <t>SV3</t>
+  </si>
+  <si>
+    <t>SV4</t>
+  </si>
+  <si>
+    <t>SV5</t>
+  </si>
+  <si>
+    <t>SV6</t>
+  </si>
+  <si>
+    <t>SV7</t>
+  </si>
+  <si>
+    <t>SV8</t>
+  </si>
+  <si>
+    <t>ERH1</t>
+  </si>
+  <si>
+    <t>ERH2</t>
+  </si>
+  <si>
+    <t>ERH3</t>
+  </si>
+  <si>
+    <t>ERH4</t>
+  </si>
+  <si>
+    <t>ERH5</t>
+  </si>
+  <si>
+    <t>ERH6</t>
+  </si>
+  <si>
+    <t>ERH7</t>
+  </si>
+  <si>
+    <t>ERH8</t>
+  </si>
+  <si>
+    <t>Totalspratamt1</t>
+  </si>
+  <si>
+    <t>Totalspratamt2</t>
+  </si>
+  <si>
+    <t>Totalspratamt3</t>
+  </si>
+  <si>
+    <t>Totalspratamt4</t>
+  </si>
+  <si>
+    <t>Totalspratamt5</t>
+  </si>
+  <si>
+    <t>Totalspratamt6</t>
+  </si>
+  <si>
+    <t>Totalspratamt7</t>
+  </si>
+  <si>
+    <t>Totalspratamt8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2441,23 +2578,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2493,23 +2613,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2685,12 +2788,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F505"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F537"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E523" sqref="E523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12805,14 +12908,654 @@
         <v>543</v>
       </c>
     </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C506" t="s">
+        <v>215</v>
+      </c>
+      <c r="D506" t="s">
+        <v>216</v>
+      </c>
+      <c r="E506" t="s">
+        <v>744</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C507" t="s">
+        <v>215</v>
+      </c>
+      <c r="D507" t="s">
+        <v>216</v>
+      </c>
+      <c r="E507" t="s">
+        <v>745</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C508" t="s">
+        <v>215</v>
+      </c>
+      <c r="D508" t="s">
+        <v>216</v>
+      </c>
+      <c r="E508" t="s">
+        <v>746</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C509" t="s">
+        <v>215</v>
+      </c>
+      <c r="D509" t="s">
+        <v>216</v>
+      </c>
+      <c r="E509" t="s">
+        <v>747</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C510" t="s">
+        <v>215</v>
+      </c>
+      <c r="D510" t="s">
+        <v>216</v>
+      </c>
+      <c r="E510" t="s">
+        <v>748</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C511" t="s">
+        <v>215</v>
+      </c>
+      <c r="D511" t="s">
+        <v>216</v>
+      </c>
+      <c r="E511" t="s">
+        <v>749</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C512" t="s">
+        <v>215</v>
+      </c>
+      <c r="D512" t="s">
+        <v>216</v>
+      </c>
+      <c r="E512" t="s">
+        <v>750</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C513" t="s">
+        <v>215</v>
+      </c>
+      <c r="D513" t="s">
+        <v>216</v>
+      </c>
+      <c r="E513" t="s">
+        <v>751</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C514" t="s">
+        <v>215</v>
+      </c>
+      <c r="D514" t="s">
+        <v>216</v>
+      </c>
+      <c r="E514" t="s">
+        <v>752</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C515" t="s">
+        <v>215</v>
+      </c>
+      <c r="D515" t="s">
+        <v>216</v>
+      </c>
+      <c r="E515" t="s">
+        <v>753</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C516" t="s">
+        <v>215</v>
+      </c>
+      <c r="D516" t="s">
+        <v>216</v>
+      </c>
+      <c r="E516" t="s">
+        <v>754</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C517" t="s">
+        <v>215</v>
+      </c>
+      <c r="D517" t="s">
+        <v>216</v>
+      </c>
+      <c r="E517" t="s">
+        <v>755</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C518" t="s">
+        <v>215</v>
+      </c>
+      <c r="D518" t="s">
+        <v>216</v>
+      </c>
+      <c r="E518" t="s">
+        <v>756</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C519" t="s">
+        <v>215</v>
+      </c>
+      <c r="D519" t="s">
+        <v>216</v>
+      </c>
+      <c r="E519" t="s">
+        <v>757</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C520" t="s">
+        <v>215</v>
+      </c>
+      <c r="D520" t="s">
+        <v>216</v>
+      </c>
+      <c r="E520" t="s">
+        <v>758</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C521" t="s">
+        <v>215</v>
+      </c>
+      <c r="D521" t="s">
+        <v>216</v>
+      </c>
+      <c r="E521" t="s">
+        <v>759</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C522" t="s">
+        <v>215</v>
+      </c>
+      <c r="D522" t="s">
+        <v>216</v>
+      </c>
+      <c r="E522" t="s">
+        <v>760</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C523" t="s">
+        <v>215</v>
+      </c>
+      <c r="D523" t="s">
+        <v>216</v>
+      </c>
+      <c r="E523" t="s">
+        <v>761</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C524" t="s">
+        <v>215</v>
+      </c>
+      <c r="D524" t="s">
+        <v>216</v>
+      </c>
+      <c r="E524" t="s">
+        <v>762</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C525" t="s">
+        <v>215</v>
+      </c>
+      <c r="D525" t="s">
+        <v>216</v>
+      </c>
+      <c r="E525" t="s">
+        <v>763</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C526" t="s">
+        <v>215</v>
+      </c>
+      <c r="D526" t="s">
+        <v>216</v>
+      </c>
+      <c r="E526" t="s">
+        <v>764</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C527" t="s">
+        <v>215</v>
+      </c>
+      <c r="D527" t="s">
+        <v>216</v>
+      </c>
+      <c r="E527" t="s">
+        <v>765</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C528" t="s">
+        <v>215</v>
+      </c>
+      <c r="D528" t="s">
+        <v>216</v>
+      </c>
+      <c r="E528" t="s">
+        <v>766</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C529" t="s">
+        <v>215</v>
+      </c>
+      <c r="D529" t="s">
+        <v>216</v>
+      </c>
+      <c r="E529" t="s">
+        <v>767</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C530" t="s">
+        <v>215</v>
+      </c>
+      <c r="D530" t="s">
+        <v>216</v>
+      </c>
+      <c r="E530" t="s">
+        <v>768</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C531" t="s">
+        <v>215</v>
+      </c>
+      <c r="D531" t="s">
+        <v>216</v>
+      </c>
+      <c r="E531" t="s">
+        <v>769</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C532" t="s">
+        <v>215</v>
+      </c>
+      <c r="D532" t="s">
+        <v>216</v>
+      </c>
+      <c r="E532" t="s">
+        <v>770</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C533" t="s">
+        <v>215</v>
+      </c>
+      <c r="D533" t="s">
+        <v>216</v>
+      </c>
+      <c r="E533" t="s">
+        <v>771</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C534" t="s">
+        <v>215</v>
+      </c>
+      <c r="D534" t="s">
+        <v>216</v>
+      </c>
+      <c r="E534" t="s">
+        <v>772</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C535" t="s">
+        <v>215</v>
+      </c>
+      <c r="D535" t="s">
+        <v>216</v>
+      </c>
+      <c r="E535" t="s">
+        <v>773</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C536" t="s">
+        <v>215</v>
+      </c>
+      <c r="D536" t="s">
+        <v>216</v>
+      </c>
+      <c r="E536" t="s">
+        <v>774</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C537" t="s">
+        <v>215</v>
+      </c>
+      <c r="D537" t="s">
+        <v>216</v>
+      </c>
+      <c r="E537" t="s">
+        <v>775</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F505" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F505">
+  <autoFilter ref="A1:F537">
+    <sortState ref="A2:F505">
       <sortCondition ref="A2:A505"/>
       <sortCondition ref="B2:B505"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H538">
+  <sortState ref="A2:H538">
     <sortCondition ref="A2:A538"/>
     <sortCondition ref="D2:D538"/>
     <sortCondition ref="B2:B538"/>
